--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK145"/>
+  <dimension ref="A1:BK148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT6" t="n">
         <v>0.46</v>
@@ -1918,7 +1918,7 @@
         <v>1.42</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU7" t="n">
         <v>1.4</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT8" t="n">
         <v>0.46</v>
@@ -2527,7 +2527,7 @@
         <v>1.54</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU10" t="n">
         <v>0.8100000000000001</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT12" t="n">
         <v>1.42</v>
@@ -3133,7 +3133,7 @@
         <v>1</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT13" t="n">
         <v>0.67</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU14" t="n">
         <v>1.18</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT15" t="n">
         <v>0.83</v>
@@ -3745,7 +3745,7 @@
         <v>1.27</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU16" t="n">
         <v>1.32</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT19" t="n">
         <v>1</v>
@@ -5369,7 +5369,7 @@
         <v>2.5</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU24" t="n">
         <v>2.71</v>
@@ -5975,10 +5975,10 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU27" t="n">
         <v>1.3</v>
@@ -6584,7 +6584,7 @@
         <v>0.67</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT30" t="n">
         <v>1.42</v>
@@ -6990,10 +6990,10 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU32" t="n">
         <v>1.2</v>
@@ -8211,7 +8211,7 @@
         <v>1.25</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU38" t="n">
         <v>2.06</v>
@@ -9020,7 +9020,7 @@
         <v>1</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT42" t="n">
         <v>0.83</v>
@@ -9629,7 +9629,7 @@
         <v>2.33</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT45" t="n">
         <v>1.25</v>
@@ -10444,7 +10444,7 @@
         <v>2</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU49" t="n">
         <v>1.71</v>
@@ -10847,7 +10847,7 @@
         <v>1.75</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT51" t="n">
         <v>0.85</v>
@@ -11053,7 +11053,7 @@
         <v>2.5</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU52" t="n">
         <v>2.05</v>
@@ -11456,7 +11456,7 @@
         <v>2</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT54" t="n">
         <v>0.83</v>
@@ -11862,7 +11862,7 @@
         <v>1.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT56" t="n">
         <v>1.42</v>
@@ -12065,7 +12065,7 @@
         <v>1.6</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT57" t="n">
         <v>0.67</v>
@@ -12271,7 +12271,7 @@
         <v>1.54</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU58" t="n">
         <v>1.62</v>
@@ -13286,7 +13286,7 @@
         <v>1.25</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU63" t="n">
         <v>1.94</v>
@@ -14098,7 +14098,7 @@
         <v>1.5</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU67" t="n">
         <v>1.5</v>
@@ -14301,7 +14301,7 @@
         <v>1.42</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU68" t="n">
         <v>1.44</v>
@@ -14907,10 +14907,10 @@
         <v>2.4</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU71" t="n">
         <v>1.4</v>
@@ -15110,7 +15110,7 @@
         <v>1</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT72" t="n">
         <v>1</v>
@@ -15516,7 +15516,7 @@
         <v>1.67</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT74" t="n">
         <v>1.42</v>
@@ -15722,7 +15722,7 @@
         <v>1.42</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU75" t="n">
         <v>1.46</v>
@@ -16128,7 +16128,7 @@
         <v>1.54</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU77" t="n">
         <v>1.73</v>
@@ -16328,7 +16328,7 @@
         <v>1.33</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT78" t="n">
         <v>1.25</v>
@@ -16734,7 +16734,7 @@
         <v>1.6</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT80" t="n">
         <v>0.83</v>
@@ -17752,7 +17752,7 @@
         <v>1.27</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU85" t="n">
         <v>1.58</v>
@@ -18158,7 +18158,7 @@
         <v>1.25</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU87" t="n">
         <v>1.89</v>
@@ -18764,7 +18764,7 @@
         <v>0.67</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT90" t="n">
         <v>1.17</v>
@@ -18970,7 +18970,7 @@
         <v>1.42</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU91" t="n">
         <v>1.48</v>
@@ -19170,7 +19170,7 @@
         <v>0.88</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT92" t="n">
         <v>1.42</v>
@@ -19373,7 +19373,7 @@
         <v>1.63</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT93" t="n">
         <v>1.42</v>
@@ -19579,7 +19579,7 @@
         <v>2</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU94" t="n">
         <v>1.67</v>
@@ -19779,7 +19779,7 @@
         <v>1</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT95" t="n">
         <v>0.85</v>
@@ -19985,7 +19985,7 @@
         <v>1.5</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU96" t="n">
         <v>1.49</v>
@@ -20185,10 +20185,10 @@
         <v>1.14</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU97" t="n">
         <v>1.71</v>
@@ -20797,7 +20797,7 @@
         <v>1.27</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU100" t="n">
         <v>1.55</v>
@@ -21000,7 +21000,7 @@
         <v>2</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU101" t="n">
         <v>1.62</v>
@@ -21406,7 +21406,7 @@
         <v>1.85</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU103" t="n">
         <v>1.96</v>
@@ -21606,7 +21606,7 @@
         <v>0.57</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT104" t="n">
         <v>1.17</v>
@@ -22012,7 +22012,7 @@
         <v>1</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT106" t="n">
         <v>0.67</v>
@@ -22624,7 +22624,7 @@
         <v>2</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU109" t="n">
         <v>1.61</v>
@@ -23027,10 +23027,10 @@
         <v>1.38</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU111" t="n">
         <v>1.54</v>
@@ -23230,7 +23230,7 @@
         <v>0.44</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT112" t="n">
         <v>0.46</v>
@@ -24245,7 +24245,7 @@
         <v>1.1</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT117" t="n">
         <v>1.42</v>
@@ -25060,7 +25060,7 @@
         <v>2</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU121" t="n">
         <v>1.68</v>
@@ -25260,7 +25260,7 @@
         <v>0.4</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT122" t="n">
         <v>0.46</v>
@@ -25872,7 +25872,7 @@
         <v>1.27</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU125" t="n">
         <v>1.51</v>
@@ -26075,7 +26075,7 @@
         <v>1.5</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU126" t="n">
         <v>1.51</v>
@@ -26275,7 +26275,7 @@
         <v>1.27</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT127" t="n">
         <v>1.42</v>
@@ -27696,10 +27696,10 @@
         <v>1.1</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU134" t="n">
         <v>1.64</v>
@@ -28714,7 +28714,7 @@
         <v>2.5</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU139" t="n">
         <v>2.05</v>
@@ -28914,7 +28914,7 @@
         <v>0.73</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT140" t="n">
         <v>0.67</v>
@@ -29120,7 +29120,7 @@
         <v>1.85</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU141" t="n">
         <v>1.92</v>
@@ -29320,7 +29320,7 @@
         <v>0.92</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT142" t="n">
         <v>0.85</v>
@@ -29984,6 +29984,615 @@
       </c>
       <c r="BK145" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>3216184</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45037.28125</v>
+      </c>
+      <c r="F146" t="n">
+        <v>25</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Western Sydney Wanderers</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Wellington Phoenix</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>2</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>2</v>
+      </c>
+      <c r="L146" t="n">
+        <v>4</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N146" t="n">
+        <v>4</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>['9', '31', '65', '87']</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q146" t="n">
+        <v>1</v>
+      </c>
+      <c r="R146" t="n">
+        <v>5</v>
+      </c>
+      <c r="S146" t="n">
+        <v>6</v>
+      </c>
+      <c r="T146" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U146" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V146" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W146" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X146" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP146" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ146" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AR146" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AS146" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT146" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU146" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV146" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AX146" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY146" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ146" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BA146" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB146" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC146" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD146" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE146" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BF146" t="n">
+        <v>13</v>
+      </c>
+      <c r="BG146" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH146" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI146" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ146" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK146" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>3216185</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>45038.16666666666</v>
+      </c>
+      <c r="F147" t="n">
+        <v>25</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Newcastle Jets FC</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Central Coast Mariners</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>1</v>
+      </c>
+      <c r="K147" t="n">
+        <v>2</v>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="n">
+        <v>3</v>
+      </c>
+      <c r="N147" t="n">
+        <v>4</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>['28', '58', '69']</t>
+        </is>
+      </c>
+      <c r="Q147" t="n">
+        <v>7</v>
+      </c>
+      <c r="R147" t="n">
+        <v>8</v>
+      </c>
+      <c r="S147" t="n">
+        <v>15</v>
+      </c>
+      <c r="T147" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U147" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V147" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W147" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X147" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AC147" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ147" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AO147" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP147" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ147" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AR147" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS147" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT147" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AU147" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV147" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AW147" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AX147" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY147" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ147" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BA147" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="BB147" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BC147" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BD147" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BE147" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BF147" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG147" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH147" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI147" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ147" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK147" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>3216186</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>45038.28125</v>
+      </c>
+      <c r="F148" t="n">
+        <v>25</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Western United</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Melbourne City FC</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>1</v>
+      </c>
+      <c r="K148" t="n">
+        <v>2</v>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="n">
+        <v>3</v>
+      </c>
+      <c r="N148" t="n">
+        <v>4</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>['13', '66', '74']</t>
+        </is>
+      </c>
+      <c r="Q148" t="n">
+        <v>6</v>
+      </c>
+      <c r="R148" t="n">
+        <v>2</v>
+      </c>
+      <c r="S148" t="n">
+        <v>8</v>
+      </c>
+      <c r="T148" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="U148" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V148" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W148" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X148" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AL148" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AO148" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP148" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ148" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR148" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS148" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT148" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AU148" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV148" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AW148" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="AX148" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AY148" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ148" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BA148" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BB148" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BC148" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BD148" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BE148" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BF148" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG148" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH148" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI148" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ148" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK148" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK148"/>
+  <dimension ref="A1:BK150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.42</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>1.54</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT9" t="n">
         <v>1.25</v>
@@ -2730,7 +2730,7 @@
         <v>1.5</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.15</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU13" t="n">
         <v>1.69</v>
@@ -3742,7 +3742,7 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT16" t="n">
         <v>1.69</v>
@@ -3948,7 +3948,7 @@
         <v>1.25</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU17" t="n">
         <v>1.74</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT25" t="n">
         <v>1</v>
@@ -6181,7 +6181,7 @@
         <v>1.54</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU28" t="n">
         <v>1.39</v>
@@ -6587,7 +6587,7 @@
         <v>1.15</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU30" t="n">
         <v>2.13</v>
@@ -7602,7 +7602,7 @@
         <v>1.85</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU35" t="n">
         <v>2.11</v>
@@ -7805,7 +7805,7 @@
         <v>1.42</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU36" t="n">
         <v>1.43</v>
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT39" t="n">
         <v>1.17</v>
@@ -9226,7 +9226,7 @@
         <v>1.54</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU43" t="n">
         <v>1.54</v>
@@ -10441,7 +10441,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT49" t="n">
         <v>1</v>
@@ -10647,7 +10647,7 @@
         <v>1.25</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU50" t="n">
         <v>2.05</v>
@@ -12068,7 +12068,7 @@
         <v>2</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU57" t="n">
         <v>1.23</v>
@@ -12674,7 +12674,7 @@
         <v>1.67</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT60" t="n">
         <v>0.83</v>
@@ -12877,7 +12877,7 @@
         <v>1.6</v>
       </c>
       <c r="AS61" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT61" t="n">
         <v>1.25</v>
@@ -13083,7 +13083,7 @@
         <v>1.85</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU62" t="n">
         <v>1.87</v>
@@ -13892,7 +13892,7 @@
         <v>2</v>
       </c>
       <c r="AS66" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT66" t="n">
         <v>0.83</v>
@@ -14704,7 +14704,7 @@
         <v>1.8</v>
       </c>
       <c r="AS70" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT70" t="n">
         <v>1.42</v>
@@ -15316,7 +15316,7 @@
         <v>2</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU73" t="n">
         <v>1.67</v>
@@ -15922,7 +15922,7 @@
         <v>1.14</v>
       </c>
       <c r="AS76" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT76" t="n">
         <v>0.85</v>
@@ -16531,7 +16531,7 @@
         <v>1.43</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT79" t="n">
         <v>1.42</v>
@@ -17549,7 +17549,7 @@
         <v>2.5</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU84" t="n">
         <v>1.99</v>
@@ -17749,7 +17749,7 @@
         <v>1.6</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT85" t="n">
         <v>1</v>
@@ -17955,7 +17955,7 @@
         <v>2.5</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU86" t="n">
         <v>2.2</v>
@@ -18561,7 +18561,7 @@
         <v>1</v>
       </c>
       <c r="AS89" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT89" t="n">
         <v>1</v>
@@ -19173,7 +19173,7 @@
         <v>1.15</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU92" t="n">
         <v>1.7</v>
@@ -19576,7 +19576,7 @@
         <v>2</v>
       </c>
       <c r="AS94" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT94" t="n">
         <v>1.69</v>
@@ -20794,7 +20794,7 @@
         <v>2.13</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT100" t="n">
         <v>1.69</v>
@@ -20997,7 +20997,7 @@
         <v>1.43</v>
       </c>
       <c r="AS101" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT101" t="n">
         <v>1.42</v>
@@ -22015,7 +22015,7 @@
         <v>2</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU106" t="n">
         <v>1.45</v>
@@ -22215,10 +22215,10 @@
         <v>1.11</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU107" t="n">
         <v>1.5</v>
@@ -23839,7 +23839,7 @@
         <v>1.22</v>
       </c>
       <c r="AS115" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT115" t="n">
         <v>1.25</v>
@@ -24045,7 +24045,7 @@
         <v>1.85</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU116" t="n">
         <v>1.93</v>
@@ -24248,7 +24248,7 @@
         <v>1.31</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU117" t="n">
         <v>1.48</v>
@@ -24854,7 +24854,7 @@
         <v>0.88</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT120" t="n">
         <v>1.17</v>
@@ -25869,7 +25869,7 @@
         <v>1.22</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT125" t="n">
         <v>1.42</v>
@@ -26278,7 +26278,7 @@
         <v>2</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU127" t="n">
         <v>1.53</v>
@@ -27087,10 +27087,10 @@
         <v>0.8</v>
       </c>
       <c r="AS131" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU131" t="n">
         <v>1.54</v>
@@ -28508,7 +28508,7 @@
         <v>0.45</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT138" t="n">
         <v>0.46</v>
@@ -28917,7 +28917,7 @@
         <v>1.31</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU140" t="n">
         <v>1.47</v>
@@ -30593,6 +30593,412 @@
       </c>
       <c r="BK148" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>3216187</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>45039.08333333334</v>
+      </c>
+      <c r="F149" t="n">
+        <v>25</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Melbourne Victory FC</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Macarthur</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="n">
+        <v>2</v>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="n">
+        <v>3</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>['3', '90+4']</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="Q149" t="n">
+        <v>3</v>
+      </c>
+      <c r="R149" t="n">
+        <v>5</v>
+      </c>
+      <c r="S149" t="n">
+        <v>8</v>
+      </c>
+      <c r="T149" t="n">
+        <v>2</v>
+      </c>
+      <c r="U149" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V149" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W149" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X149" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AD149" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP149" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AQ149" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR149" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS149" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT149" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AU149" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV149" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW149" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX149" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY149" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ149" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="BA149" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB149" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC149" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BD149" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE149" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BF149" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG149" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH149" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI149" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ149" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK149" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>3216188</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45039.20833333334</v>
+      </c>
+      <c r="F150" t="n">
+        <v>25</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Perth Glory FC</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Adelaide United</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>1</v>
+      </c>
+      <c r="K150" t="n">
+        <v>2</v>
+      </c>
+      <c r="L150" t="n">
+        <v>4</v>
+      </c>
+      <c r="M150" t="n">
+        <v>4</v>
+      </c>
+      <c r="N150" t="n">
+        <v>8</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>['32', '60', '90+3', '90+6']</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>['34', '51', '78', '90+9']</t>
+        </is>
+      </c>
+      <c r="Q150" t="n">
+        <v>3</v>
+      </c>
+      <c r="R150" t="n">
+        <v>8</v>
+      </c>
+      <c r="S150" t="n">
+        <v>11</v>
+      </c>
+      <c r="T150" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U150" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V150" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W150" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X150" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP150" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ150" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR150" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS150" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AT150" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU150" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV150" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW150" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX150" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AY150" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ150" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BA150" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="BB150" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BC150" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BD150" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BE150" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BF150" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG150" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH150" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI150" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ150" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK150" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK150"/>
+  <dimension ref="A1:BK151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT3" t="n">
         <v>0.62</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT7" t="n">
         <v>1.69</v>
@@ -2933,7 +2933,7 @@
         <v>1.15</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT20" t="n">
         <v>0.85</v>
@@ -4963,7 +4963,7 @@
         <v>1.5</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU22" t="n">
         <v>1.29</v>
@@ -6381,10 +6381,10 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU29" t="n">
         <v>1.22</v>
@@ -7802,7 +7802,7 @@
         <v>1.25</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT36" t="n">
         <v>1.38</v>
@@ -9429,7 +9429,7 @@
         <v>1.85</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU44" t="n">
         <v>1.95</v>
@@ -10238,7 +10238,7 @@
         <v>1.75</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT48" t="n">
         <v>1.25</v>
@@ -11865,7 +11865,7 @@
         <v>1.31</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU56" t="n">
         <v>1.44</v>
@@ -14298,7 +14298,7 @@
         <v>1.25</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT68" t="n">
         <v>1</v>
@@ -14707,7 +14707,7 @@
         <v>1.92</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU70" t="n">
         <v>1.51</v>
@@ -15519,7 +15519,7 @@
         <v>1.15</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU74" t="n">
         <v>1.71</v>
@@ -15719,7 +15719,7 @@
         <v>2.17</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT75" t="n">
         <v>1.69</v>
@@ -16534,7 +16534,7 @@
         <v>1.42</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU79" t="n">
         <v>1.59</v>
@@ -18967,7 +18967,7 @@
         <v>1.17</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT91" t="n">
         <v>1.42</v>
@@ -19376,7 +19376,7 @@
         <v>2</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU93" t="n">
         <v>1.41</v>
@@ -21812,7 +21812,7 @@
         <v>2.5</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU105" t="n">
         <v>2.27</v>
@@ -22418,7 +22418,7 @@
         <v>0.5</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT108" t="n">
         <v>0.46</v>
@@ -24451,7 +24451,7 @@
         <v>1.54</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU118" t="n">
         <v>1.54</v>
@@ -25463,7 +25463,7 @@
         <v>1.11</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT123" t="n">
         <v>1.17</v>
@@ -27902,7 +27902,7 @@
         <v>2</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU135" t="n">
         <v>1.69</v>
@@ -28102,7 +28102,7 @@
         <v>1.09</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT136" t="n">
         <v>1</v>
@@ -30999,6 +30999,209 @@
       </c>
       <c r="BK150" t="n">
         <v>19</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>3216189</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45040.25</v>
+      </c>
+      <c r="F151" t="n">
+        <v>25</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Brisbane Roar</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Sydney FC</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>1</v>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M151" t="n">
+        <v>2</v>
+      </c>
+      <c r="N151" t="n">
+        <v>2</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>['34', '77']</t>
+        </is>
+      </c>
+      <c r="Q151" t="n">
+        <v>6</v>
+      </c>
+      <c r="R151" t="n">
+        <v>3</v>
+      </c>
+      <c r="S151" t="n">
+        <v>9</v>
+      </c>
+      <c r="T151" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U151" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V151" t="n">
+        <v>3</v>
+      </c>
+      <c r="W151" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X151" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD151" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE151" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AJ151" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AL151" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN151" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO151" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP151" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ151" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AR151" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS151" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT151" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AU151" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV151" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AW151" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AX151" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY151" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ151" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BA151" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB151" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC151" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD151" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BE151" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BF151" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG151" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH151" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI151" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ151" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK151" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK151"/>
+  <dimension ref="A1:BK157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT4" t="n">
         <v>0.85</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.54</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU10" t="n">
         <v>0.8100000000000001</v>
@@ -2727,7 +2727,7 @@
         <v>1</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT11" t="n">
         <v>1.38</v>
@@ -3339,7 +3339,7 @@
         <v>1.31</v>
       </c>
       <c r="AT14" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU14" t="n">
         <v>1.18</v>
@@ -3542,7 +3542,7 @@
         <v>2</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU15" t="n">
         <v>1.28</v>
@@ -3742,7 +3742,7 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT16" t="n">
         <v>1.69</v>
@@ -3945,7 +3945,7 @@
         <v>0.5</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT17" t="n">
         <v>1.38</v>
@@ -4354,7 +4354,7 @@
         <v>2</v>
       </c>
       <c r="AT19" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU19" t="n">
         <v>1.31</v>
@@ -4760,7 +4760,7 @@
         <v>1.85</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU21" t="n">
         <v>1.32</v>
@@ -4960,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT22" t="n">
         <v>1.54</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT23" t="n">
         <v>0.46</v>
@@ -5366,10 +5366,10 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT24" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU24" t="n">
         <v>2.71</v>
@@ -5569,10 +5569,10 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT25" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU25" t="n">
         <v>1.35</v>
@@ -5772,7 +5772,7 @@
         <v>0.75</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT26" t="n">
         <v>0.46</v>
@@ -5978,7 +5978,7 @@
         <v>2</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU27" t="n">
         <v>1.3</v>
@@ -6787,7 +6787,7 @@
         <v>2</v>
       </c>
       <c r="AS31" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT31" t="n">
         <v>0.85</v>
@@ -7193,10 +7193,10 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU33" t="n">
         <v>2.41</v>
@@ -7399,7 +7399,7 @@
         <v>1.54</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU34" t="n">
         <v>1.59</v>
@@ -8008,7 +8008,7 @@
         <v>1.54</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU37" t="n">
         <v>1.53</v>
@@ -8208,7 +8208,7 @@
         <v>3</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT38" t="n">
         <v>1.69</v>
@@ -8411,10 +8411,10 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU39" t="n">
         <v>0</v>
@@ -8617,7 +8617,7 @@
         <v>1.85</v>
       </c>
       <c r="AT40" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU40" t="n">
         <v>2.04</v>
@@ -8817,7 +8817,7 @@
         <v>1.33</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT41" t="n">
         <v>0.85</v>
@@ -9023,7 +9023,7 @@
         <v>1.31</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU42" t="n">
         <v>1.49</v>
@@ -9632,7 +9632,7 @@
         <v>1.15</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU45" t="n">
         <v>2.27</v>
@@ -9832,7 +9832,7 @@
         <v>0.6</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT46" t="n">
         <v>0.46</v>
@@ -10038,7 +10038,7 @@
         <v>1.85</v>
       </c>
       <c r="AT47" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU47" t="n">
         <v>1.83</v>
@@ -10241,7 +10241,7 @@
         <v>1.31</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU48" t="n">
         <v>1.51</v>
@@ -10441,10 +10441,10 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT49" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU49" t="n">
         <v>1.71</v>
@@ -10644,7 +10644,7 @@
         <v>1.25</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT50" t="n">
         <v>0.62</v>
@@ -11050,10 +11050,10 @@
         <v>2</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU52" t="n">
         <v>2.05</v>
@@ -11253,10 +11253,10 @@
         <v>0.75</v>
       </c>
       <c r="AS53" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT53" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU53" t="n">
         <v>1.81</v>
@@ -11459,7 +11459,7 @@
         <v>1.15</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU54" t="n">
         <v>1.82</v>
@@ -12471,7 +12471,7 @@
         <v>0.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT59" t="n">
         <v>0.46</v>
@@ -12674,10 +12674,10 @@
         <v>1.67</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU60" t="n">
         <v>1.55</v>
@@ -12877,10 +12877,10 @@
         <v>1.6</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU61" t="n">
         <v>1.69</v>
@@ -13283,10 +13283,10 @@
         <v>0.67</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT63" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU63" t="n">
         <v>1.94</v>
@@ -13486,10 +13486,10 @@
         <v>0.75</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU64" t="n">
         <v>2.04</v>
@@ -13689,10 +13689,10 @@
         <v>1.2</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT65" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU65" t="n">
         <v>1.38</v>
@@ -13892,10 +13892,10 @@
         <v>2</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU66" t="n">
         <v>1.66</v>
@@ -14095,10 +14095,10 @@
         <v>1.33</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU67" t="n">
         <v>1.5</v>
@@ -14301,7 +14301,7 @@
         <v>1.31</v>
       </c>
       <c r="AT68" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU68" t="n">
         <v>1.44</v>
@@ -14501,7 +14501,7 @@
         <v>1.17</v>
       </c>
       <c r="AS69" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT69" t="n">
         <v>0.85</v>
@@ -14704,7 +14704,7 @@
         <v>1.8</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT70" t="n">
         <v>1.54</v>
@@ -15113,7 +15113,7 @@
         <v>1.15</v>
       </c>
       <c r="AT72" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU72" t="n">
         <v>1.74</v>
@@ -15313,7 +15313,7 @@
         <v>1.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT73" t="n">
         <v>0.62</v>
@@ -15922,7 +15922,7 @@
         <v>1.14</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT76" t="n">
         <v>0.85</v>
@@ -16128,7 +16128,7 @@
         <v>1.54</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU77" t="n">
         <v>1.73</v>
@@ -16331,7 +16331,7 @@
         <v>1.31</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU78" t="n">
         <v>1.46</v>
@@ -16531,7 +16531,7 @@
         <v>1.43</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT79" t="n">
         <v>1.54</v>
@@ -16737,7 +16737,7 @@
         <v>1.31</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU80" t="n">
         <v>1.43</v>
@@ -17140,10 +17140,10 @@
         <v>0.6</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU82" t="n">
         <v>1.56</v>
@@ -17346,7 +17346,7 @@
         <v>1.85</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU83" t="n">
         <v>1.98</v>
@@ -17546,7 +17546,7 @@
         <v>0.86</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT84" t="n">
         <v>1.38</v>
@@ -17749,10 +17749,10 @@
         <v>1.6</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT85" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU85" t="n">
         <v>1.58</v>
@@ -17952,7 +17952,7 @@
         <v>1.14</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT86" t="n">
         <v>0.62</v>
@@ -18155,10 +18155,10 @@
         <v>1.4</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU87" t="n">
         <v>1.89</v>
@@ -18358,10 +18358,10 @@
         <v>1.33</v>
       </c>
       <c r="AS88" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU88" t="n">
         <v>1.62</v>
@@ -18561,10 +18561,10 @@
         <v>1</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT89" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU89" t="n">
         <v>1.64</v>
@@ -18767,7 +18767,7 @@
         <v>2</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU90" t="n">
         <v>1.26</v>
@@ -18970,7 +18970,7 @@
         <v>1.31</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU91" t="n">
         <v>1.48</v>
@@ -19576,7 +19576,7 @@
         <v>2</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT94" t="n">
         <v>1.69</v>
@@ -19982,10 +19982,10 @@
         <v>1.33</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT96" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU96" t="n">
         <v>1.49</v>
@@ -20188,7 +20188,7 @@
         <v>1.15</v>
       </c>
       <c r="AT97" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU97" t="n">
         <v>1.71</v>
@@ -20388,10 +20388,10 @@
         <v>1.14</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU98" t="n">
         <v>1.88</v>
@@ -20591,10 +20591,10 @@
         <v>1</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT99" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU99" t="n">
         <v>1.57</v>
@@ -20794,7 +20794,7 @@
         <v>2.13</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT100" t="n">
         <v>1.69</v>
@@ -20997,10 +20997,10 @@
         <v>1.43</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU101" t="n">
         <v>1.62</v>
@@ -21200,10 +21200,10 @@
         <v>1.25</v>
       </c>
       <c r="AS102" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU102" t="n">
         <v>1.63</v>
@@ -21406,7 +21406,7 @@
         <v>1.85</v>
       </c>
       <c r="AT103" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU103" t="n">
         <v>1.96</v>
@@ -21609,7 +21609,7 @@
         <v>1.31</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU104" t="n">
         <v>1.41</v>
@@ -21809,7 +21809,7 @@
         <v>1.78</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT105" t="n">
         <v>1.54</v>
@@ -22215,7 +22215,7 @@
         <v>1.11</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT107" t="n">
         <v>1.38</v>
@@ -22621,7 +22621,7 @@
         <v>1.89</v>
       </c>
       <c r="AS109" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT109" t="n">
         <v>1.69</v>
@@ -22827,7 +22827,7 @@
         <v>1.54</v>
       </c>
       <c r="AT110" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU110" t="n">
         <v>1.59</v>
@@ -23030,7 +23030,7 @@
         <v>2</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU111" t="n">
         <v>1.54</v>
@@ -23433,7 +23433,7 @@
         <v>0.89</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT113" t="n">
         <v>0.85</v>
@@ -23636,10 +23636,10 @@
         <v>1.13</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU114" t="n">
         <v>1.54</v>
@@ -23839,10 +23839,10 @@
         <v>1.22</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU115" t="n">
         <v>1.63</v>
@@ -24651,10 +24651,10 @@
         <v>1</v>
       </c>
       <c r="AS119" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU119" t="n">
         <v>2.27</v>
@@ -24854,10 +24854,10 @@
         <v>0.88</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU120" t="n">
         <v>1.49</v>
@@ -25057,10 +25057,10 @@
         <v>1.33</v>
       </c>
       <c r="AS121" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT121" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU121" t="n">
         <v>1.68</v>
@@ -25466,7 +25466,7 @@
         <v>1.31</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU123" t="n">
         <v>1.48</v>
@@ -25666,10 +25666,10 @@
         <v>1.1</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU124" t="n">
         <v>1.75</v>
@@ -25869,10 +25869,10 @@
         <v>1.22</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU125" t="n">
         <v>1.51</v>
@@ -26072,7 +26072,7 @@
         <v>1.7</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT126" t="n">
         <v>1.69</v>
@@ -26684,7 +26684,7 @@
         <v>1.85</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU129" t="n">
         <v>1.95</v>
@@ -26884,10 +26884,10 @@
         <v>1</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU130" t="n">
         <v>1.8</v>
@@ -27087,7 +27087,7 @@
         <v>0.8</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT131" t="n">
         <v>0.62</v>
@@ -27290,10 +27290,10 @@
         <v>1.1</v>
       </c>
       <c r="AS132" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT132" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU132" t="n">
         <v>2.18</v>
@@ -27493,7 +27493,7 @@
         <v>1</v>
       </c>
       <c r="AS133" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT133" t="n">
         <v>0.85</v>
@@ -27699,7 +27699,7 @@
         <v>1.15</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU134" t="n">
         <v>1.64</v>
@@ -27899,7 +27899,7 @@
         <v>1.45</v>
       </c>
       <c r="AS135" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT135" t="n">
         <v>1.54</v>
@@ -28105,7 +28105,7 @@
         <v>1.31</v>
       </c>
       <c r="AT136" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU136" t="n">
         <v>1.47</v>
@@ -28305,10 +28305,10 @@
         <v>1.27</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU137" t="n">
         <v>1.44</v>
@@ -28508,7 +28508,7 @@
         <v>0.45</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT138" t="n">
         <v>0.46</v>
@@ -28711,10 +28711,10 @@
         <v>1.2</v>
       </c>
       <c r="AS139" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT139" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU139" t="n">
         <v>2.05</v>
@@ -29526,7 +29526,7 @@
         <v>1.54</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU143" t="n">
         <v>1.47</v>
@@ -29726,7 +29726,7 @@
         <v>0.5</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT144" t="n">
         <v>0.46</v>
@@ -29929,10 +29929,10 @@
         <v>1</v>
       </c>
       <c r="AS145" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU145" t="n">
         <v>1.64</v>
@@ -30135,7 +30135,7 @@
         <v>2</v>
       </c>
       <c r="AT146" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU146" t="n">
         <v>1.55</v>
@@ -30338,7 +30338,7 @@
         <v>1.31</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU147" t="n">
         <v>1.55</v>
@@ -30741,7 +30741,7 @@
         <v>0.67</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT149" t="n">
         <v>0.62</v>
@@ -30944,7 +30944,7 @@
         <v>1.42</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT150" t="n">
         <v>1.38</v>
@@ -31202,6 +31202,1224 @@
       </c>
       <c r="BK151" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>3216190</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>45044.28125</v>
+      </c>
+      <c r="F152" t="n">
+        <v>26</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Melbourne City FC</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Western Sydney Wanderers</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>1</v>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="n">
+        <v>3</v>
+      </c>
+      <c r="M152" t="n">
+        <v>2</v>
+      </c>
+      <c r="N152" t="n">
+        <v>5</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>['49', '75', '90+3']</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>['41', '74']</t>
+        </is>
+      </c>
+      <c r="Q152" t="n">
+        <v>8</v>
+      </c>
+      <c r="R152" t="n">
+        <v>1</v>
+      </c>
+      <c r="S152" t="n">
+        <v>9</v>
+      </c>
+      <c r="T152" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U152" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V152" t="n">
+        <v>4</v>
+      </c>
+      <c r="W152" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X152" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AL152" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN152" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO152" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP152" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ152" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR152" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS152" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AT152" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AU152" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AV152" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AW152" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="AX152" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY152" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ152" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="BA152" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB152" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC152" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BD152" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE152" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BF152" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG152" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH152" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI152" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ152" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK152" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>3216192</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>45044.28125</v>
+      </c>
+      <c r="F153" t="n">
+        <v>26</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Adelaide United</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Central Coast Mariners</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>2</v>
+      </c>
+      <c r="K153" t="n">
+        <v>2</v>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="n">
+        <v>4</v>
+      </c>
+      <c r="N153" t="n">
+        <v>5</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>['23', '41', '57', '87']</t>
+        </is>
+      </c>
+      <c r="Q153" t="n">
+        <v>7</v>
+      </c>
+      <c r="R153" t="n">
+        <v>3</v>
+      </c>
+      <c r="S153" t="n">
+        <v>10</v>
+      </c>
+      <c r="T153" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U153" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V153" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W153" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X153" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AL153" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AN153" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO153" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP153" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AQ153" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR153" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS153" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AT153" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AU153" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV153" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AW153" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AX153" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AY153" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ153" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BA153" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BB153" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BC153" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BD153" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BE153" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF153" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG153" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH153" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI153" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ153" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK153" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>3216195</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>45045.16666666666</v>
+      </c>
+      <c r="F154" t="n">
+        <v>26</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Macarthur</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Wellington Phoenix</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>1</v>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="n">
+        <v>1</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="Q154" t="n">
+        <v>8</v>
+      </c>
+      <c r="R154" t="n">
+        <v>4</v>
+      </c>
+      <c r="S154" t="n">
+        <v>12</v>
+      </c>
+      <c r="T154" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="U154" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V154" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W154" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X154" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT154" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AU154" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW154" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX154" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AY154" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ154" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BA154" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BB154" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC154" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BD154" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE154" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BF154" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG154" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH154" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ154" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK154" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>3216191</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>45045.16666666666</v>
+      </c>
+      <c r="F155" t="n">
+        <v>26</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Sydney FC</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Newcastle Jets FC</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="n">
+        <v>2</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N155" t="n">
+        <v>2</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>['29', '63']</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>3</v>
+      </c>
+      <c r="R155" t="n">
+        <v>8</v>
+      </c>
+      <c r="S155" t="n">
+        <v>11</v>
+      </c>
+      <c r="T155" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U155" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V155" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="W155" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X155" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ155" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BA155" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>3216193</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>45045.28125</v>
+      </c>
+      <c r="F156" t="n">
+        <v>26</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Melbourne Victory FC</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Brisbane Roar</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="n">
+        <v>1</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="Q156" t="n">
+        <v>5</v>
+      </c>
+      <c r="R156" t="n">
+        <v>3</v>
+      </c>
+      <c r="S156" t="n">
+        <v>8</v>
+      </c>
+      <c r="T156" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U156" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V156" t="n">
+        <v>4</v>
+      </c>
+      <c r="W156" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X156" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX156" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ156" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BA156" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB156" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC156" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF156" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG156" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH156" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ156" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>3216194</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>45045.375</v>
+      </c>
+      <c r="F157" t="n">
+        <v>26</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Perth Glory FC</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Western United</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>1</v>
+      </c>
+      <c r="K157" t="n">
+        <v>2</v>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="n">
+        <v>2</v>
+      </c>
+      <c r="N157" t="n">
+        <v>3</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>['25', '53']</t>
+        </is>
+      </c>
+      <c r="Q157" t="n">
+        <v>1</v>
+      </c>
+      <c r="R157" t="n">
+        <v>12</v>
+      </c>
+      <c r="S157" t="n">
+        <v>13</v>
+      </c>
+      <c r="T157" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U157" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V157" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W157" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X157" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AT157" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AU157" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW157" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX157" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ157" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BA157" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="BB157" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BC157" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BD157" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BE157" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BF157" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG157" t="n">
+        <v>14</v>
+      </c>
+      <c r="BH157" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI157" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ157" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK157" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -12939,7 +12939,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>3216063</v>
+        <v>3216062</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -12959,182 +12959,182 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Central Coast Mariners</t>
+          <t>Sydney FC</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Adelaide United</t>
+          <t>Wellington Phoenix</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="n">
         <v>0</v>
       </c>
-      <c r="K62" t="n">
-        <v>1</v>
-      </c>
-      <c r="L62" t="n">
-        <v>4</v>
-      </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N62" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>['31', '48', '55', '58']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['10']</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R62" t="n">
+        <v>2</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U62" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V62" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W62" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X62" t="n">
         <v>3</v>
       </c>
-      <c r="S62" t="n">
-        <v>9</v>
-      </c>
-      <c r="T62" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="U62" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V62" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="W62" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X62" t="n">
-        <v>3.4</v>
-      </c>
       <c r="Y62" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="Z62" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AA62" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AB62" t="n">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="AC62" t="n">
-        <v>2.09</v>
+        <v>2.02</v>
       </c>
       <c r="AD62" t="n">
-        <v>3.4</v>
+        <v>3.27</v>
       </c>
       <c r="AE62" t="n">
-        <v>2.92</v>
+        <v>3.18</v>
       </c>
       <c r="AF62" t="n">
         <v>1.02</v>
       </c>
       <c r="AG62" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AH62" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AI62" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AJ62" t="n">
-        <v>1.49</v>
+        <v>1.7</v>
       </c>
       <c r="AK62" t="n">
-        <v>2.32</v>
+        <v>2.1</v>
       </c>
       <c r="AL62" t="n">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="AM62" t="n">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="AN62" t="n">
-        <v>1.38</v>
+        <v>1.26</v>
       </c>
       <c r="AO62" t="n">
         <v>1.27</v>
       </c>
       <c r="AP62" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AV62" t="n">
         <v>1.63</v>
       </c>
-      <c r="AQ62" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AR62" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS62" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AT62" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AU62" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AV62" t="n">
-        <v>1.84</v>
-      </c>
       <c r="AW62" t="n">
-        <v>3.71</v>
+        <v>3.57</v>
       </c>
       <c r="AX62" t="n">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="AY62" t="n">
         <v>6</v>
       </c>
       <c r="AZ62" t="n">
-        <v>2.55</v>
+        <v>3.05</v>
       </c>
       <c r="BA62" t="n">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="BB62" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="BC62" t="n">
-        <v>1.38</v>
+        <v>1.59</v>
       </c>
       <c r="BD62" t="n">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="BE62" t="n">
-        <v>1.95</v>
+        <v>2.37</v>
       </c>
       <c r="BF62" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BG62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH62" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="BI62" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BJ62" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="BK62" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63">
@@ -13142,7 +13142,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>3216062</v>
+        <v>3216063</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -13162,182 +13162,182 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Sydney FC</t>
+          <t>Central Coast Mariners</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Wellington Phoenix</t>
+          <t>Adelaide United</t>
         </is>
       </c>
       <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>1</v>
-      </c>
       <c r="K63" t="n">
         <v>1</v>
       </c>
       <c r="L63" t="n">
+        <v>4</v>
+      </c>
+      <c r="M63" t="n">
         <v>0</v>
       </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
       <c r="N63" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
+          <t>['31', '48', '55', '58']</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>['10']</t>
-        </is>
-      </c>
       <c r="Q63" t="n">
+        <v>6</v>
+      </c>
+      <c r="R63" t="n">
         <v>3</v>
       </c>
-      <c r="R63" t="n">
-        <v>2</v>
-      </c>
       <c r="S63" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T63" t="n">
-        <v>2.45</v>
+        <v>2.65</v>
       </c>
       <c r="U63" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V63" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="W63" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="X63" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Y63" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="Z63" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AA63" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AB63" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="AC63" t="n">
-        <v>2.02</v>
+        <v>2.09</v>
       </c>
       <c r="AD63" t="n">
-        <v>3.27</v>
+        <v>3.4</v>
       </c>
       <c r="AE63" t="n">
-        <v>3.18</v>
+        <v>2.92</v>
       </c>
       <c r="AF63" t="n">
         <v>1.02</v>
       </c>
       <c r="AG63" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AH63" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AI63" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AJ63" t="n">
-        <v>1.7</v>
+        <v>1.49</v>
       </c>
       <c r="AK63" t="n">
-        <v>2.1</v>
+        <v>2.32</v>
       </c>
       <c r="AL63" t="n">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="AM63" t="n">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="AN63" t="n">
-        <v>1.26</v>
+        <v>1.38</v>
       </c>
       <c r="AO63" t="n">
         <v>1.27</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.8</v>
+        <v>1.71</v>
       </c>
       <c r="AR63" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AS63" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AT63" t="n">
         <v>1.38</v>
       </c>
-      <c r="AT63" t="n">
-        <v>1.15</v>
-      </c>
       <c r="AU63" t="n">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="AV63" t="n">
-        <v>1.63</v>
+        <v>1.84</v>
       </c>
       <c r="AW63" t="n">
-        <v>3.57</v>
+        <v>3.71</v>
       </c>
       <c r="AX63" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AY63" t="n">
         <v>6</v>
       </c>
       <c r="AZ63" t="n">
-        <v>3.05</v>
+        <v>2.55</v>
       </c>
       <c r="BA63" t="n">
-        <v>1.16</v>
+        <v>1.11</v>
       </c>
       <c r="BB63" t="n">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="BC63" t="n">
-        <v>1.59</v>
+        <v>1.38</v>
       </c>
       <c r="BD63" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BE63" t="n">
         <v>1.95</v>
       </c>
-      <c r="BE63" t="n">
-        <v>2.37</v>
-      </c>
       <c r="BF63" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BG63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH63" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BI63" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BJ63" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="BK63" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64">
@@ -17811,7 +17811,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>3216085</v>
+        <v>3216086</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -17831,98 +17831,98 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Melbourne City FC</t>
+          <t>Sydney FC</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Macarthur</t>
+          <t>Central Coast Mariners</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K86" t="n">
         <v>3</v>
       </c>
       <c r="L86" t="n">
+        <v>3</v>
+      </c>
+      <c r="M86" t="n">
+        <v>2</v>
+      </c>
+      <c r="N86" t="n">
+        <v>5</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>['10', '58', '72']</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>['20', '33']</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>7</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>11</v>
+      </c>
+      <c r="T86" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U86" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V86" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W86" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X86" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA86" t="n">
         <v>6</v>
       </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="n">
-        <v>7</v>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>['3', '33', '43', '68', '77', '87']</t>
-        </is>
-      </c>
-      <c r="P86" t="inlineStr">
-        <is>
-          <t>['72']</t>
-        </is>
-      </c>
-      <c r="Q86" t="n">
-        <v>9</v>
-      </c>
-      <c r="R86" t="n">
-        <v>6</v>
-      </c>
-      <c r="S86" t="n">
-        <v>15</v>
-      </c>
-      <c r="T86" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="U86" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="V86" t="n">
-        <v>6</v>
-      </c>
-      <c r="W86" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="X86" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Y86" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Z86" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AA86" t="n">
-        <v>5</v>
-      </c>
       <c r="AB86" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH86" t="n">
         <v>1.17</v>
       </c>
-      <c r="AC86" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AD86" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="AE86" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AF86" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AG86" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH86" t="n">
-        <v>1.16</v>
-      </c>
       <c r="AI86" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="AJ86" t="n">
         <v>1.74</v>
@@ -17931,67 +17931,67 @@
         <v>2.09</v>
       </c>
       <c r="AL86" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP86" t="n">
         <v>1.7</v>
       </c>
-      <c r="AM86" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AN86" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AO86" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AP86" t="n">
-        <v>2.7</v>
-      </c>
       <c r="AQ86" t="n">
-        <v>2.33</v>
+        <v>0.67</v>
       </c>
       <c r="AR86" t="n">
-        <v>1.14</v>
+        <v>1.4</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.54</v>
+        <v>1.38</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.62</v>
+        <v>1.54</v>
       </c>
       <c r="AU86" t="n">
-        <v>2.2</v>
+        <v>1.89</v>
       </c>
       <c r="AV86" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="AW86" t="n">
-        <v>3.83</v>
+        <v>3.62</v>
       </c>
       <c r="AX86" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY86" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ86" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BA86" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB86" t="n">
         <v>1.27</v>
       </c>
-      <c r="AY86" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ86" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="BA86" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="BB86" t="n">
-        <v>1.25</v>
-      </c>
       <c r="BC86" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="BD86" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="BE86" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="BF86" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BG86" t="n">
         <v>5</v>
@@ -18000,13 +18000,13 @@
         <v>11</v>
       </c>
       <c r="BI86" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BJ86" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="BK86" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87">
@@ -18014,7 +18014,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>3216086</v>
+        <v>3216085</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -18034,98 +18034,98 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Sydney FC</t>
+          <t>Melbourne City FC</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Central Coast Mariners</t>
+          <t>Macarthur</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K87" t="n">
         <v>3</v>
       </c>
       <c r="L87" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N87" t="n">
+        <v>7</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>['3', '33', '43', '68', '77', '87']</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>9</v>
+      </c>
+      <c r="R87" t="n">
+        <v>6</v>
+      </c>
+      <c r="S87" t="n">
+        <v>15</v>
+      </c>
+      <c r="T87" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U87" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V87" t="n">
+        <v>6</v>
+      </c>
+      <c r="W87" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X87" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA87" t="n">
         <v>5</v>
       </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>['10', '58', '72']</t>
-        </is>
-      </c>
-      <c r="P87" t="inlineStr">
-        <is>
-          <t>['20', '33']</t>
-        </is>
-      </c>
-      <c r="Q87" t="n">
-        <v>7</v>
-      </c>
-      <c r="R87" t="n">
-        <v>4</v>
-      </c>
-      <c r="S87" t="n">
-        <v>11</v>
-      </c>
-      <c r="T87" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="U87" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V87" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="W87" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X87" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Y87" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Z87" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AA87" t="n">
-        <v>6</v>
-      </c>
       <c r="AB87" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="AC87" t="n">
-        <v>2.04</v>
+        <v>1.45</v>
       </c>
       <c r="AD87" t="n">
-        <v>3.31</v>
+        <v>3.99</v>
       </c>
       <c r="AE87" t="n">
-        <v>3.1</v>
+        <v>5.7</v>
       </c>
       <c r="AF87" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AG87" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AH87" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AI87" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="AJ87" t="n">
         <v>1.74</v>
@@ -18134,67 +18134,67 @@
         <v>2.09</v>
       </c>
       <c r="AL87" t="n">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AM87" t="n">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="AN87" t="n">
-        <v>1.32</v>
+        <v>1.11</v>
       </c>
       <c r="AO87" t="n">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="AQ87" t="n">
-        <v>0.67</v>
+        <v>2.33</v>
       </c>
       <c r="AR87" t="n">
-        <v>1.4</v>
+        <v>1.14</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.38</v>
+        <v>2.54</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.54</v>
+        <v>0.62</v>
       </c>
       <c r="AU87" t="n">
-        <v>1.89</v>
+        <v>2.2</v>
       </c>
       <c r="AV87" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AW87" t="n">
-        <v>3.62</v>
+        <v>3.83</v>
       </c>
       <c r="AX87" t="n">
-        <v>1.64</v>
+        <v>1.27</v>
       </c>
       <c r="AY87" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AZ87" t="n">
-        <v>2.66</v>
+        <v>5.1</v>
       </c>
       <c r="BA87" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="BB87" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="BC87" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="BD87" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="BE87" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="BF87" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BG87" t="n">
         <v>5</v>
@@ -18203,13 +18203,13 @@
         <v>11</v>
       </c>
       <c r="BI87" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BJ87" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="BK87" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88">
@@ -21465,7 +21465,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>3216103</v>
+        <v>3216104</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -21485,59 +21485,59 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Newcastle Jets FC</t>
+          <t>Melbourne City FC</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Western United</t>
+          <t>Sydney FC</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K104" t="n">
+        <v>4</v>
+      </c>
+      <c r="L104" t="n">
         <v>3</v>
       </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
       <c r="M104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N104" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>['33']</t>
+          <t>['5', '13', '30']</t>
         </is>
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>['3', '29', '72']</t>
+          <t>['28', '90+6']</t>
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R104" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S104" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="T104" t="n">
-        <v>2.88</v>
+        <v>2.38</v>
       </c>
       <c r="U104" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="V104" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="W104" t="n">
         <v>1.33</v>
@@ -21546,121 +21546,121 @@
         <v>3.25</v>
       </c>
       <c r="Y104" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Z104" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AA104" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB104" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AC104" t="n">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="AD104" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AE104" t="n">
-        <v>3.1</v>
+        <v>4.33</v>
       </c>
       <c r="AF104" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AG104" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH104" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AI104" t="n">
-        <v>3.9</v>
+        <v>4.25</v>
       </c>
       <c r="AJ104" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="AK104" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM104" t="n">
         <v>2.1</v>
       </c>
-      <c r="AL104" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AM104" t="n">
-        <v>2.25</v>
-      </c>
       <c r="AN104" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="AO104" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.63</v>
+        <v>1.99</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.63</v>
+        <v>2.43</v>
       </c>
       <c r="AR104" t="n">
-        <v>0.57</v>
+        <v>1.78</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.31</v>
+        <v>2.54</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.31</v>
+        <v>1.54</v>
       </c>
       <c r="AU104" t="n">
-        <v>1.41</v>
+        <v>2.27</v>
       </c>
       <c r="AV104" t="n">
-        <v>1.37</v>
+        <v>1.94</v>
       </c>
       <c r="AW104" t="n">
-        <v>2.78</v>
+        <v>4.21</v>
       </c>
       <c r="AX104" t="n">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="AY104" t="n">
         <v>8.5</v>
       </c>
       <c r="AZ104" t="n">
-        <v>2</v>
+        <v>2.66</v>
       </c>
       <c r="BA104" t="n">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="BB104" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="BC104" t="n">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="BD104" t="n">
-        <v>1.68</v>
+        <v>1.93</v>
       </c>
       <c r="BE104" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="BF104" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG104" t="n">
         <v>7</v>
       </c>
-      <c r="BG104" t="n">
-        <v>6</v>
-      </c>
       <c r="BH104" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI104" t="n">
         <v>9</v>
       </c>
-      <c r="BI104" t="n">
-        <v>5</v>
-      </c>
       <c r="BJ104" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK104" t="n">
         <v>16</v>
-      </c>
-      <c r="BK104" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="105">
@@ -21668,7 +21668,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>3216104</v>
+        <v>3216103</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -21688,59 +21688,59 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Melbourne City FC</t>
+          <t>Newcastle Jets FC</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Sydney FC</t>
+          <t>Western United</t>
         </is>
       </c>
       <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>2</v>
+      </c>
+      <c r="K105" t="n">
         <v>3</v>
       </c>
-      <c r="J105" t="n">
-        <v>1</v>
-      </c>
-      <c r="K105" t="n">
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="n">
+        <v>3</v>
+      </c>
+      <c r="N105" t="n">
         <v>4</v>
       </c>
-      <c r="L105" t="n">
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>['3', '29', '72']</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>6</v>
+      </c>
+      <c r="R105" t="n">
         <v>3</v>
       </c>
-      <c r="M105" t="n">
-        <v>2</v>
-      </c>
-      <c r="N105" t="n">
-        <v>5</v>
-      </c>
-      <c r="O105" t="inlineStr">
-        <is>
-          <t>['5', '13', '30']</t>
-        </is>
-      </c>
-      <c r="P105" t="inlineStr">
-        <is>
-          <t>['28', '90+6']</t>
-        </is>
-      </c>
-      <c r="Q105" t="n">
-        <v>7</v>
-      </c>
-      <c r="R105" t="n">
-        <v>7</v>
-      </c>
       <c r="S105" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="T105" t="n">
-        <v>2.38</v>
+        <v>2.88</v>
       </c>
       <c r="U105" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="V105" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="W105" t="n">
         <v>1.33</v>
@@ -21749,121 +21749,121 @@
         <v>3.25</v>
       </c>
       <c r="Y105" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Z105" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AA105" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB105" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AC105" t="n">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="AD105" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AE105" t="n">
-        <v>4.33</v>
+        <v>3.1</v>
       </c>
       <c r="AF105" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AG105" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH105" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AI105" t="n">
-        <v>4.25</v>
+        <v>3.9</v>
       </c>
       <c r="AJ105" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL105" t="n">
         <v>1.57</v>
       </c>
-      <c r="AK105" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AL105" t="n">
-        <v>1.67</v>
-      </c>
       <c r="AM105" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AN105" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO105" t="n">
         <v>1.25</v>
       </c>
-      <c r="AO105" t="n">
-        <v>1.26</v>
-      </c>
       <c r="AP105" t="n">
-        <v>1.99</v>
+        <v>1.63</v>
       </c>
       <c r="AQ105" t="n">
-        <v>2.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR105" t="n">
-        <v>1.78</v>
+        <v>0.57</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.54</v>
+        <v>1.31</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.54</v>
+        <v>1.31</v>
       </c>
       <c r="AU105" t="n">
-        <v>2.27</v>
+        <v>1.41</v>
       </c>
       <c r="AV105" t="n">
-        <v>1.94</v>
+        <v>1.37</v>
       </c>
       <c r="AW105" t="n">
-        <v>4.21</v>
+        <v>2.78</v>
       </c>
       <c r="AX105" t="n">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="AY105" t="n">
         <v>8.5</v>
       </c>
       <c r="AZ105" t="n">
-        <v>2.66</v>
+        <v>2</v>
       </c>
       <c r="BA105" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="BB105" t="n">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="BC105" t="n">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="BD105" t="n">
-        <v>1.93</v>
+        <v>1.68</v>
       </c>
       <c r="BE105" t="n">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="BF105" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG105" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH105" t="n">
         <v>9</v>
       </c>
-      <c r="BG105" t="n">
-        <v>7</v>
-      </c>
-      <c r="BH105" t="n">
-        <v>12</v>
-      </c>
       <c r="BI105" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BJ105" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="BK105" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106">
@@ -31615,7 +31615,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="n">
-        <v>3216195</v>
+        <v>3216191</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -31635,122 +31635,122 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Macarthur</t>
+          <t>Sydney FC</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Wellington Phoenix</t>
+          <t>Newcastle Jets FC</t>
         </is>
       </c>
       <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>1</v>
-      </c>
       <c r="K154" t="n">
         <v>1</v>
       </c>
       <c r="L154" t="n">
+        <v>2</v>
+      </c>
+      <c r="M154" t="n">
         <v>0</v>
       </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
       <c r="N154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
+          <t>['29', '63']</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P154" t="inlineStr">
-        <is>
-          <t>['11']</t>
-        </is>
-      </c>
       <c r="Q154" t="n">
+        <v>3</v>
+      </c>
+      <c r="R154" t="n">
         <v>8</v>
       </c>
-      <c r="R154" t="n">
+      <c r="S154" t="n">
+        <v>11</v>
+      </c>
+      <c r="T154" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U154" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V154" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="W154" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X154" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD154" t="n">
         <v>4</v>
       </c>
-      <c r="S154" t="n">
-        <v>12</v>
-      </c>
-      <c r="T154" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="U154" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="V154" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="W154" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="X154" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Y154" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Z154" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AA154" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AB154" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AC154" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AD154" t="n">
-        <v>3.75</v>
-      </c>
       <c r="AE154" t="n">
-        <v>1.91</v>
+        <v>4.5</v>
       </c>
       <c r="AF154" t="n">
         <v>1.02</v>
       </c>
       <c r="AG154" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AH154" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AI154" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="AJ154" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="AK154" t="n">
-        <v>2.46</v>
+        <v>2.51</v>
       </c>
       <c r="AL154" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AM154" t="n">
-        <v>2.4</v>
+        <v>2.65</v>
       </c>
       <c r="AN154" t="n">
-        <v>1.78</v>
+        <v>1.22</v>
       </c>
       <c r="AO154" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AR154" t="n">
         <v>1</v>
@@ -31759,58 +31759,58 @@
         <v>1.38</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.15</v>
+        <v>0.92</v>
       </c>
       <c r="AU154" t="n">
-        <v>1.44</v>
+        <v>1.86</v>
       </c>
       <c r="AV154" t="n">
-        <v>1.54</v>
+        <v>1.37</v>
       </c>
       <c r="AW154" t="n">
-        <v>2.98</v>
+        <v>3.23</v>
       </c>
       <c r="AX154" t="n">
-        <v>2.78</v>
+        <v>1.43</v>
       </c>
       <c r="AY154" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AZ154" t="n">
-        <v>1.59</v>
+        <v>3.42</v>
       </c>
       <c r="BA154" t="n">
         <v>1.11</v>
       </c>
       <c r="BB154" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="BC154" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="BD154" t="n">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="BE154" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="BF154" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BG154" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH154" t="n">
         <v>7</v>
       </c>
       <c r="BI154" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BJ154" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BK154" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="155">
@@ -31818,7 +31818,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="n">
-        <v>3216191</v>
+        <v>3216195</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -31838,122 +31838,122 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Sydney FC</t>
+          <t>Macarthur</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Newcastle Jets FC</t>
+          <t>Wellington Phoenix</t>
         </is>
       </c>
       <c r="I155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" t="n">
+        <v>1</v>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="n">
         <v>0</v>
       </c>
-      <c r="K155" t="n">
-        <v>1</v>
-      </c>
-      <c r="L155" t="n">
-        <v>2</v>
-      </c>
       <c r="M155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>['29', '63']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P155" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['11']</t>
         </is>
       </c>
       <c r="Q155" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R155" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S155" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T155" t="n">
-        <v>2.15</v>
+        <v>3.7</v>
       </c>
       <c r="U155" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="V155" t="n">
-        <v>4.3</v>
+        <v>2.4</v>
       </c>
       <c r="W155" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="X155" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="Y155" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="Z155" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="AA155" t="n">
-        <v>4.65</v>
+        <v>4.8</v>
       </c>
       <c r="AB155" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AC155" t="n">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="AD155" t="n">
-        <v>4</v>
+        <v>3.38</v>
       </c>
       <c r="AE155" t="n">
-        <v>4.5</v>
+        <v>3.13</v>
       </c>
       <c r="AF155" t="n">
         <v>1.02</v>
       </c>
       <c r="AG155" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AH155" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="AI155" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="AJ155" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="AK155" t="n">
-        <v>2.51</v>
+        <v>2.46</v>
       </c>
       <c r="AL155" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AM155" t="n">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="AN155" t="n">
-        <v>1.22</v>
+        <v>1.78</v>
       </c>
       <c r="AO155" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="AP155" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AR155" t="n">
         <v>1</v>
@@ -31962,58 +31962,58 @@
         <v>1.38</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.92</v>
+        <v>1.15</v>
       </c>
       <c r="AU155" t="n">
-        <v>1.86</v>
+        <v>1.44</v>
       </c>
       <c r="AV155" t="n">
-        <v>1.37</v>
+        <v>1.54</v>
       </c>
       <c r="AW155" t="n">
-        <v>3.23</v>
+        <v>2.98</v>
       </c>
       <c r="AX155" t="n">
-        <v>1.43</v>
+        <v>2.78</v>
       </c>
       <c r="AY155" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AZ155" t="n">
-        <v>3.42</v>
+        <v>1.59</v>
       </c>
       <c r="BA155" t="n">
         <v>1.11</v>
       </c>
       <c r="BB155" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="BC155" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="BD155" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="BE155" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="BF155" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BG155" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH155" t="n">
         <v>7</v>
       </c>
       <c r="BI155" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BJ155" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BK155" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="156">
@@ -32407,19 +32407,19 @@
         <v>3</v>
       </c>
       <c r="BG157" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BH157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BI157" t="n">
         <v>6</v>
       </c>
       <c r="BJ157" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BK157" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK157"/>
+  <dimension ref="A1:BK159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT6" t="n">
         <v>0.46</v>
@@ -2933,7 +2933,7 @@
         <v>1.15</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.31</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU14" t="n">
         <v>1.18</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT15" t="n">
         <v>1</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT19" t="n">
         <v>0.92</v>
@@ -4963,7 +4963,7 @@
         <v>1.38</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU22" t="n">
         <v>1.29</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT23" t="n">
         <v>0.46</v>
@@ -5369,7 +5369,7 @@
         <v>2.54</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU24" t="n">
         <v>2.71</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT27" t="n">
         <v>1.54</v>
@@ -6384,7 +6384,7 @@
         <v>1.31</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU29" t="n">
         <v>1.22</v>
@@ -6787,7 +6787,7 @@
         <v>2</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT31" t="n">
         <v>0.85</v>
@@ -9429,7 +9429,7 @@
         <v>1.85</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU44" t="n">
         <v>1.95</v>
@@ -10444,7 +10444,7 @@
         <v>1.77</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU49" t="n">
         <v>1.71</v>
@@ -11253,7 +11253,7 @@
         <v>0.75</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT53" t="n">
         <v>0.92</v>
@@ -11865,7 +11865,7 @@
         <v>1.31</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU56" t="n">
         <v>1.44</v>
@@ -12065,7 +12065,7 @@
         <v>1.6</v>
       </c>
       <c r="AS57" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT57" t="n">
         <v>0.62</v>
@@ -12471,7 +12471,7 @@
         <v>0.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT59" t="n">
         <v>0.46</v>
@@ -13083,7 +13083,7 @@
         <v>1.38</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU62" t="n">
         <v>1.94</v>
@@ -14301,7 +14301,7 @@
         <v>1.31</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU68" t="n">
         <v>1.44</v>
@@ -14501,7 +14501,7 @@
         <v>1.17</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT69" t="n">
         <v>0.85</v>
@@ -14707,7 +14707,7 @@
         <v>1.77</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU70" t="n">
         <v>1.51</v>
@@ -14907,7 +14907,7 @@
         <v>2.4</v>
       </c>
       <c r="AS71" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT71" t="n">
         <v>1.69</v>
@@ -15313,7 +15313,7 @@
         <v>1.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT73" t="n">
         <v>0.62</v>
@@ -15519,7 +15519,7 @@
         <v>1.15</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU74" t="n">
         <v>1.71</v>
@@ -16534,7 +16534,7 @@
         <v>1.31</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU79" t="n">
         <v>1.59</v>
@@ -17752,7 +17752,7 @@
         <v>1.31</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU85" t="n">
         <v>1.58</v>
@@ -17811,7 +17811,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>3216086</v>
+        <v>3216085</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -17831,98 +17831,98 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Sydney FC</t>
+          <t>Melbourne City FC</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Central Coast Mariners</t>
+          <t>Macarthur</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K86" t="n">
         <v>3</v>
       </c>
       <c r="L86" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N86" t="n">
+        <v>7</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>['3', '33', '43', '68', '77', '87']</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>9</v>
+      </c>
+      <c r="R86" t="n">
+        <v>6</v>
+      </c>
+      <c r="S86" t="n">
+        <v>15</v>
+      </c>
+      <c r="T86" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U86" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V86" t="n">
+        <v>6</v>
+      </c>
+      <c r="W86" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X86" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA86" t="n">
         <v>5</v>
       </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>['10', '58', '72']</t>
-        </is>
-      </c>
-      <c r="P86" t="inlineStr">
-        <is>
-          <t>['20', '33']</t>
-        </is>
-      </c>
-      <c r="Q86" t="n">
-        <v>7</v>
-      </c>
-      <c r="R86" t="n">
-        <v>4</v>
-      </c>
-      <c r="S86" t="n">
-        <v>11</v>
-      </c>
-      <c r="T86" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="U86" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V86" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="W86" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X86" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Y86" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Z86" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AA86" t="n">
-        <v>6</v>
-      </c>
       <c r="AB86" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="AC86" t="n">
-        <v>2.04</v>
+        <v>1.45</v>
       </c>
       <c r="AD86" t="n">
-        <v>3.31</v>
+        <v>3.99</v>
       </c>
       <c r="AE86" t="n">
-        <v>3.1</v>
+        <v>5.7</v>
       </c>
       <c r="AF86" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AG86" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AH86" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AI86" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="AJ86" t="n">
         <v>1.74</v>
@@ -17931,67 +17931,67 @@
         <v>2.09</v>
       </c>
       <c r="AL86" t="n">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AM86" t="n">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="AN86" t="n">
-        <v>1.32</v>
+        <v>1.11</v>
       </c>
       <c r="AO86" t="n">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.67</v>
+        <v>2.33</v>
       </c>
       <c r="AR86" t="n">
-        <v>1.4</v>
+        <v>1.14</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.38</v>
+        <v>2.54</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.54</v>
+        <v>0.62</v>
       </c>
       <c r="AU86" t="n">
-        <v>1.89</v>
+        <v>2.2</v>
       </c>
       <c r="AV86" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AW86" t="n">
-        <v>3.62</v>
+        <v>3.83</v>
       </c>
       <c r="AX86" t="n">
-        <v>1.64</v>
+        <v>1.27</v>
       </c>
       <c r="AY86" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AZ86" t="n">
-        <v>2.66</v>
+        <v>5.1</v>
       </c>
       <c r="BA86" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="BB86" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="BC86" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="BD86" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="BE86" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="BF86" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BG86" t="n">
         <v>5</v>
@@ -18000,13 +18000,13 @@
         <v>11</v>
       </c>
       <c r="BI86" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BJ86" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="BK86" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87">
@@ -18014,7 +18014,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>3216085</v>
+        <v>3216086</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -18034,98 +18034,98 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Melbourne City FC</t>
+          <t>Sydney FC</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Macarthur</t>
+          <t>Central Coast Mariners</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K87" t="n">
         <v>3</v>
       </c>
       <c r="L87" t="n">
+        <v>3</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2</v>
+      </c>
+      <c r="N87" t="n">
+        <v>5</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>['10', '58', '72']</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>['20', '33']</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>7</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>11</v>
+      </c>
+      <c r="T87" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U87" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V87" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W87" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X87" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA87" t="n">
         <v>6</v>
       </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="n">
-        <v>7</v>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>['3', '33', '43', '68', '77', '87']</t>
-        </is>
-      </c>
-      <c r="P87" t="inlineStr">
-        <is>
-          <t>['72']</t>
-        </is>
-      </c>
-      <c r="Q87" t="n">
-        <v>9</v>
-      </c>
-      <c r="R87" t="n">
-        <v>6</v>
-      </c>
-      <c r="S87" t="n">
-        <v>15</v>
-      </c>
-      <c r="T87" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="U87" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="V87" t="n">
-        <v>6</v>
-      </c>
-      <c r="W87" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="X87" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Y87" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Z87" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AA87" t="n">
-        <v>5</v>
-      </c>
       <c r="AB87" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH87" t="n">
         <v>1.17</v>
       </c>
-      <c r="AC87" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AD87" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="AE87" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AF87" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AG87" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH87" t="n">
-        <v>1.16</v>
-      </c>
       <c r="AI87" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="AJ87" t="n">
         <v>1.74</v>
@@ -18134,67 +18134,67 @@
         <v>2.09</v>
       </c>
       <c r="AL87" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP87" t="n">
         <v>1.7</v>
       </c>
-      <c r="AM87" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AN87" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AO87" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AP87" t="n">
-        <v>2.7</v>
-      </c>
       <c r="AQ87" t="n">
-        <v>2.33</v>
+        <v>0.67</v>
       </c>
       <c r="AR87" t="n">
-        <v>1.14</v>
+        <v>1.4</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.54</v>
+        <v>1.38</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.62</v>
+        <v>1.54</v>
       </c>
       <c r="AU87" t="n">
-        <v>2.2</v>
+        <v>1.89</v>
       </c>
       <c r="AV87" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="AW87" t="n">
-        <v>3.83</v>
+        <v>3.62</v>
       </c>
       <c r="AX87" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY87" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ87" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BA87" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB87" t="n">
         <v>1.27</v>
       </c>
-      <c r="AY87" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ87" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="BA87" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="BB87" t="n">
-        <v>1.25</v>
-      </c>
       <c r="BC87" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="BD87" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="BE87" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="BF87" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BG87" t="n">
         <v>5</v>
@@ -18203,13 +18203,13 @@
         <v>11</v>
       </c>
       <c r="BI87" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BJ87" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="BK87" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88">
@@ -18358,7 +18358,7 @@
         <v>1.33</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT88" t="n">
         <v>1</v>
@@ -18764,7 +18764,7 @@
         <v>0.67</v>
       </c>
       <c r="AS90" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT90" t="n">
         <v>1.31</v>
@@ -19373,10 +19373,10 @@
         <v>1.63</v>
       </c>
       <c r="AS93" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU93" t="n">
         <v>1.41</v>
@@ -19985,7 +19985,7 @@
         <v>1.38</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU96" t="n">
         <v>1.49</v>
@@ -20188,7 +20188,7 @@
         <v>1.15</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU97" t="n">
         <v>1.71</v>
@@ -21200,7 +21200,7 @@
         <v>1.25</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT102" t="n">
         <v>1.15</v>
@@ -21406,7 +21406,7 @@
         <v>1.85</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU103" t="n">
         <v>1.96</v>
@@ -21465,7 +21465,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>3216104</v>
+        <v>3216103</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -21485,59 +21485,59 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Melbourne City FC</t>
+          <t>Newcastle Jets FC</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Sydney FC</t>
+          <t>Western United</t>
         </is>
       </c>
       <c r="I104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>2</v>
+      </c>
+      <c r="K104" t="n">
         <v>3</v>
       </c>
-      <c r="J104" t="n">
-        <v>1</v>
-      </c>
-      <c r="K104" t="n">
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="n">
+        <v>3</v>
+      </c>
+      <c r="N104" t="n">
         <v>4</v>
       </c>
-      <c r="L104" t="n">
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>['3', '29', '72']</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>6</v>
+      </c>
+      <c r="R104" t="n">
         <v>3</v>
       </c>
-      <c r="M104" t="n">
-        <v>2</v>
-      </c>
-      <c r="N104" t="n">
-        <v>5</v>
-      </c>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>['5', '13', '30']</t>
-        </is>
-      </c>
-      <c r="P104" t="inlineStr">
-        <is>
-          <t>['28', '90+6']</t>
-        </is>
-      </c>
-      <c r="Q104" t="n">
-        <v>7</v>
-      </c>
-      <c r="R104" t="n">
-        <v>7</v>
-      </c>
       <c r="S104" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="T104" t="n">
-        <v>2.38</v>
+        <v>2.88</v>
       </c>
       <c r="U104" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="V104" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="W104" t="n">
         <v>1.33</v>
@@ -21546,121 +21546,121 @@
         <v>3.25</v>
       </c>
       <c r="Y104" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Z104" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AA104" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB104" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AC104" t="n">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="AD104" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AE104" t="n">
-        <v>4.33</v>
+        <v>3.1</v>
       </c>
       <c r="AF104" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AG104" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH104" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AI104" t="n">
-        <v>4.25</v>
+        <v>3.9</v>
       </c>
       <c r="AJ104" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL104" t="n">
         <v>1.57</v>
       </c>
-      <c r="AK104" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AL104" t="n">
-        <v>1.67</v>
-      </c>
       <c r="AM104" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AN104" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO104" t="n">
         <v>1.25</v>
       </c>
-      <c r="AO104" t="n">
-        <v>1.26</v>
-      </c>
       <c r="AP104" t="n">
-        <v>1.99</v>
+        <v>1.63</v>
       </c>
       <c r="AQ104" t="n">
-        <v>2.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR104" t="n">
-        <v>1.78</v>
+        <v>0.57</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.54</v>
+        <v>1.31</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.54</v>
+        <v>1.31</v>
       </c>
       <c r="AU104" t="n">
-        <v>2.27</v>
+        <v>1.41</v>
       </c>
       <c r="AV104" t="n">
-        <v>1.94</v>
+        <v>1.37</v>
       </c>
       <c r="AW104" t="n">
-        <v>4.21</v>
+        <v>2.78</v>
       </c>
       <c r="AX104" t="n">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="AY104" t="n">
         <v>8.5</v>
       </c>
       <c r="AZ104" t="n">
-        <v>2.66</v>
+        <v>2</v>
       </c>
       <c r="BA104" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="BB104" t="n">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="BC104" t="n">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="BD104" t="n">
-        <v>1.93</v>
+        <v>1.68</v>
       </c>
       <c r="BE104" t="n">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="BF104" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG104" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH104" t="n">
         <v>9</v>
       </c>
-      <c r="BG104" t="n">
-        <v>7</v>
-      </c>
-      <c r="BH104" t="n">
-        <v>12</v>
-      </c>
       <c r="BI104" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BJ104" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="BK104" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105">
@@ -21668,7 +21668,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>3216103</v>
+        <v>3216104</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -21688,59 +21688,59 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Newcastle Jets FC</t>
+          <t>Melbourne City FC</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Western United</t>
+          <t>Sydney FC</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J105" t="n">
+        <v>1</v>
+      </c>
+      <c r="K105" t="n">
+        <v>4</v>
+      </c>
+      <c r="L105" t="n">
+        <v>3</v>
+      </c>
+      <c r="M105" t="n">
         <v>2</v>
       </c>
-      <c r="K105" t="n">
-        <v>3</v>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="n">
-        <v>3</v>
-      </c>
       <c r="N105" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>['33']</t>
+          <t>['5', '13', '30']</t>
         </is>
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>['3', '29', '72']</t>
+          <t>['28', '90+6']</t>
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R105" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S105" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="T105" t="n">
-        <v>2.88</v>
+        <v>2.38</v>
       </c>
       <c r="U105" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="V105" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="W105" t="n">
         <v>1.33</v>
@@ -21749,121 +21749,121 @@
         <v>3.25</v>
       </c>
       <c r="Y105" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Z105" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AA105" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB105" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AC105" t="n">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="AD105" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AE105" t="n">
-        <v>3.1</v>
+        <v>4.33</v>
       </c>
       <c r="AF105" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AG105" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH105" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AI105" t="n">
-        <v>3.9</v>
+        <v>4.25</v>
       </c>
       <c r="AJ105" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="AK105" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM105" t="n">
         <v>2.1</v>
       </c>
-      <c r="AL105" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AM105" t="n">
-        <v>2.25</v>
-      </c>
       <c r="AN105" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="AO105" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.63</v>
+        <v>1.99</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.63</v>
+        <v>2.43</v>
       </c>
       <c r="AR105" t="n">
-        <v>0.57</v>
+        <v>1.78</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.31</v>
+        <v>2.54</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.31</v>
+        <v>1.64</v>
       </c>
       <c r="AU105" t="n">
-        <v>1.41</v>
+        <v>2.27</v>
       </c>
       <c r="AV105" t="n">
-        <v>1.37</v>
+        <v>1.94</v>
       </c>
       <c r="AW105" t="n">
-        <v>2.78</v>
+        <v>4.21</v>
       </c>
       <c r="AX105" t="n">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="AY105" t="n">
         <v>8.5</v>
       </c>
       <c r="AZ105" t="n">
-        <v>2</v>
+        <v>2.66</v>
       </c>
       <c r="BA105" t="n">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="BB105" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="BC105" t="n">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="BD105" t="n">
-        <v>1.68</v>
+        <v>1.93</v>
       </c>
       <c r="BE105" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="BF105" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG105" t="n">
         <v>7</v>
       </c>
-      <c r="BG105" t="n">
-        <v>6</v>
-      </c>
       <c r="BH105" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI105" t="n">
         <v>9</v>
       </c>
-      <c r="BI105" t="n">
-        <v>5</v>
-      </c>
       <c r="BJ105" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK105" t="n">
         <v>16</v>
-      </c>
-      <c r="BK105" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="106">
@@ -22012,7 +22012,7 @@
         <v>1</v>
       </c>
       <c r="AS106" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT106" t="n">
         <v>0.62</v>
@@ -22621,7 +22621,7 @@
         <v>1.89</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT109" t="n">
         <v>1.69</v>
@@ -22886,7 +22886,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>3216111</v>
+        <v>3216110</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -22906,92 +22906,92 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Western Sydney Wanderers</t>
+          <t>Western United</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Central Coast Mariners</t>
+          <t>Perth Glory FC</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K111" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L111" t="n">
         <v>2</v>
       </c>
       <c r="M111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>['26', '60']</t>
+          <t>['42', '45+3']</t>
         </is>
       </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['22']</t>
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R111" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="S111" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="T111" t="n">
-        <v>2.65</v>
+        <v>2.64</v>
       </c>
       <c r="U111" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V111" t="n">
-        <v>3.4</v>
+        <v>3.78</v>
       </c>
       <c r="W111" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X111" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Y111" t="n">
         <v>2.5</v>
       </c>
       <c r="Z111" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AA111" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AB111" t="n">
         <v>1.12</v>
       </c>
       <c r="AC111" t="n">
-        <v>2.4</v>
+        <v>1.91</v>
       </c>
       <c r="AD111" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AE111" t="n">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="AF111" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AG111" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH111" t="n">
         <v>1.22</v>
@@ -23000,55 +23000,55 @@
         <v>4</v>
       </c>
       <c r="AJ111" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="AK111" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AL111" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="AM111" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AN111" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="AO111" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.55</v>
+        <v>1.73</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.89</v>
+        <v>1.2</v>
       </c>
       <c r="AR111" t="n">
-        <v>1.38</v>
+        <v>0.44</v>
       </c>
       <c r="AS111" t="n">
-        <v>2</v>
+        <v>1.15</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.54</v>
+        <v>0.46</v>
       </c>
       <c r="AU111" t="n">
-        <v>1.54</v>
+        <v>1.69</v>
       </c>
       <c r="AV111" t="n">
-        <v>1.78</v>
+        <v>1.33</v>
       </c>
       <c r="AW111" t="n">
-        <v>3.32</v>
+        <v>3.02</v>
       </c>
       <c r="AX111" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="AY111" t="n">
         <v>8.5</v>
       </c>
       <c r="AZ111" t="n">
-        <v>2.05</v>
+        <v>2.43</v>
       </c>
       <c r="BA111" t="n">
         <v>1.14</v>
@@ -23060,28 +23060,28 @@
         <v>1.49</v>
       </c>
       <c r="BD111" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="BE111" t="n">
         <v>2.27</v>
       </c>
       <c r="BF111" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BG111" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH111" t="n">
         <v>4</v>
       </c>
-      <c r="BH111" t="n">
-        <v>6</v>
-      </c>
       <c r="BI111" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BJ111" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BK111" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112">
@@ -23089,7 +23089,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>3216110</v>
+        <v>3216111</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -23109,92 +23109,92 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Western United</t>
+          <t>Western Sydney Wanderers</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Perth Glory FC</t>
+          <t>Central Coast Mariners</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K112" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L112" t="n">
         <v>2</v>
       </c>
       <c r="M112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>['42', '45+3']</t>
+          <t>['26', '60']</t>
         </is>
       </c>
       <c r="P112" t="inlineStr">
         <is>
-          <t>['22']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R112" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="S112" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="T112" t="n">
-        <v>2.64</v>
+        <v>2.65</v>
       </c>
       <c r="U112" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V112" t="n">
-        <v>3.78</v>
+        <v>3.4</v>
       </c>
       <c r="W112" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="X112" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Y112" t="n">
         <v>2.5</v>
       </c>
       <c r="Z112" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AA112" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AB112" t="n">
         <v>1.12</v>
       </c>
       <c r="AC112" t="n">
-        <v>1.91</v>
+        <v>2.4</v>
       </c>
       <c r="AD112" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AE112" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="AF112" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AG112" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH112" t="n">
         <v>1.22</v>
@@ -23203,55 +23203,55 @@
         <v>4</v>
       </c>
       <c r="AJ112" t="n">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="AK112" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AL112" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="AM112" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AN112" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="AO112" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.73</v>
+        <v>1.55</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.2</v>
+        <v>1.89</v>
       </c>
       <c r="AR112" t="n">
-        <v>0.44</v>
+        <v>1.38</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.15</v>
+        <v>1.86</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.46</v>
+        <v>1.54</v>
       </c>
       <c r="AU112" t="n">
-        <v>1.69</v>
+        <v>1.54</v>
       </c>
       <c r="AV112" t="n">
-        <v>1.33</v>
+        <v>1.78</v>
       </c>
       <c r="AW112" t="n">
-        <v>3.02</v>
+        <v>3.32</v>
       </c>
       <c r="AX112" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="AY112" t="n">
         <v>8.5</v>
       </c>
       <c r="AZ112" t="n">
-        <v>2.43</v>
+        <v>2.05</v>
       </c>
       <c r="BA112" t="n">
         <v>1.14</v>
@@ -23263,28 +23263,28 @@
         <v>1.49</v>
       </c>
       <c r="BD112" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="BE112" t="n">
         <v>2.27</v>
       </c>
       <c r="BF112" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG112" t="n">
         <v>4</v>
       </c>
-      <c r="BG112" t="n">
-        <v>8</v>
-      </c>
       <c r="BH112" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BI112" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BJ112" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BK112" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113">
@@ -24451,7 +24451,7 @@
         <v>1.54</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU118" t="n">
         <v>1.54</v>
@@ -25057,10 +25057,10 @@
         <v>1.33</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU121" t="n">
         <v>1.68</v>
@@ -26275,7 +26275,7 @@
         <v>1.27</v>
       </c>
       <c r="AS127" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT127" t="n">
         <v>1.38</v>
@@ -27899,10 +27899,10 @@
         <v>1.45</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU135" t="n">
         <v>1.69</v>
@@ -28714,7 +28714,7 @@
         <v>2.54</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU139" t="n">
         <v>2.05</v>
@@ -29320,7 +29320,7 @@
         <v>0.92</v>
       </c>
       <c r="AS142" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT142" t="n">
         <v>0.85</v>
@@ -29929,7 +29929,7 @@
         <v>1</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT145" t="n">
         <v>1.31</v>
@@ -30132,10 +30132,10 @@
         <v>1.09</v>
       </c>
       <c r="AS146" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU146" t="n">
         <v>1.55</v>
@@ -31150,7 +31150,7 @@
         <v>1.31</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU151" t="n">
         <v>1.51</v>
@@ -31553,7 +31553,7 @@
         <v>1.42</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT153" t="n">
         <v>1.54</v>
@@ -31962,7 +31962,7 @@
         <v>1.38</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU155" t="n">
         <v>1.44</v>
@@ -32420,6 +32420,412 @@
       </c>
       <c r="BK157" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>6011484</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>45051.28125</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Adelaide United</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Wellington Phoenix</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="n">
+        <v>2</v>
+      </c>
+      <c r="M158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N158" t="n">
+        <v>2</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>['19', '67']</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
+        <v>4</v>
+      </c>
+      <c r="R158" t="n">
+        <v>8</v>
+      </c>
+      <c r="S158" t="n">
+        <v>12</v>
+      </c>
+      <c r="T158" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U158" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V158" t="n">
+        <v>4</v>
+      </c>
+      <c r="W158" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X158" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BA158" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BF158" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ158" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>6062620</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>45052.28125</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Western Sydney Wanderers</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Sydney FC</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="n">
+        <v>2</v>
+      </c>
+      <c r="N159" t="n">
+        <v>3</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>['69', '80']</t>
+        </is>
+      </c>
+      <c r="Q159" t="n">
+        <v>4</v>
+      </c>
+      <c r="R159" t="n">
+        <v>9</v>
+      </c>
+      <c r="S159" t="n">
+        <v>13</v>
+      </c>
+      <c r="T159" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U159" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V159" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W159" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X159" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ159" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AT159" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AX159" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY159" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ159" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA159" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB159" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC159" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BD159" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE159" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BF159" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG159" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH159" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ159" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK159" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK159"/>
+  <dimension ref="A1:BK161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT4" t="n">
         <v>0.85</v>
@@ -1918,7 +1918,7 @@
         <v>1.31</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU7" t="n">
         <v>1.4</v>
@@ -2527,7 +2527,7 @@
         <v>1.54</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU10" t="n">
         <v>0.8100000000000001</v>
@@ -3745,7 +3745,7 @@
         <v>1.31</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU16" t="n">
         <v>1.32</v>
@@ -3945,7 +3945,7 @@
         <v>0.5</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT17" t="n">
         <v>1.38</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT23" t="n">
         <v>0.46</v>
@@ -5978,7 +5978,7 @@
         <v>1.86</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU27" t="n">
         <v>1.3</v>
@@ -6787,7 +6787,7 @@
         <v>2</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT31" t="n">
         <v>0.85</v>
@@ -6993,7 +6993,7 @@
         <v>1.31</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU32" t="n">
         <v>1.2</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT33" t="n">
         <v>1.15</v>
@@ -8208,10 +8208,10 @@
         <v>3</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU38" t="n">
         <v>2.06</v>
@@ -10644,7 +10644,7 @@
         <v>1.25</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT50" t="n">
         <v>0.62</v>
@@ -11053,7 +11053,7 @@
         <v>2.54</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU52" t="n">
         <v>2.05</v>
@@ -11253,7 +11253,7 @@
         <v>0.75</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT53" t="n">
         <v>0.92</v>
@@ -12271,7 +12271,7 @@
         <v>1.54</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU58" t="n">
         <v>1.62</v>
@@ -12471,7 +12471,7 @@
         <v>0.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT59" t="n">
         <v>0.46</v>
@@ -13080,7 +13080,7 @@
         <v>0.67</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT62" t="n">
         <v>1.07</v>
@@ -14098,7 +14098,7 @@
         <v>1.38</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU67" t="n">
         <v>1.5</v>
@@ -14501,7 +14501,7 @@
         <v>1.17</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT69" t="n">
         <v>0.85</v>
@@ -14910,7 +14910,7 @@
         <v>1.86</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU71" t="n">
         <v>1.4</v>
@@ -15313,7 +15313,7 @@
         <v>1.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT73" t="n">
         <v>0.62</v>
@@ -15722,7 +15722,7 @@
         <v>1.31</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU75" t="n">
         <v>1.46</v>
@@ -16128,7 +16128,7 @@
         <v>1.54</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU77" t="n">
         <v>1.73</v>
@@ -18155,10 +18155,10 @@
         <v>1.4</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU87" t="n">
         <v>1.89</v>
@@ -18358,7 +18358,7 @@
         <v>1.33</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT88" t="n">
         <v>1</v>
@@ -18970,7 +18970,7 @@
         <v>1.31</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU91" t="n">
         <v>1.48</v>
@@ -19579,7 +19579,7 @@
         <v>1.77</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU94" t="n">
         <v>1.67</v>
@@ -20388,7 +20388,7 @@
         <v>1.14</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT98" t="n">
         <v>1</v>
@@ -20797,7 +20797,7 @@
         <v>1.31</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU100" t="n">
         <v>1.55</v>
@@ -21000,7 +21000,7 @@
         <v>1.77</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU101" t="n">
         <v>1.62</v>
@@ -21200,7 +21200,7 @@
         <v>1.25</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT102" t="n">
         <v>1.15</v>
@@ -22621,10 +22621,10 @@
         <v>1.89</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU109" t="n">
         <v>1.61</v>
@@ -23233,7 +23233,7 @@
         <v>1.86</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU112" t="n">
         <v>1.54</v>
@@ -23433,7 +23433,7 @@
         <v>0.89</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT113" t="n">
         <v>0.85</v>
@@ -25057,7 +25057,7 @@
         <v>1.33</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT121" t="n">
         <v>1.07</v>
@@ -25666,7 +25666,7 @@
         <v>1.1</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT124" t="n">
         <v>1.15</v>
@@ -25872,7 +25872,7 @@
         <v>1.31</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU125" t="n">
         <v>1.51</v>
@@ -26075,7 +26075,7 @@
         <v>1.38</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU126" t="n">
         <v>1.51</v>
@@ -26884,7 +26884,7 @@
         <v>1</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT130" t="n">
         <v>1.31</v>
@@ -27699,7 +27699,7 @@
         <v>1.15</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU134" t="n">
         <v>1.64</v>
@@ -27899,7 +27899,7 @@
         <v>1.45</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT135" t="n">
         <v>1.64</v>
@@ -29120,7 +29120,7 @@
         <v>1.85</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU141" t="n">
         <v>1.92</v>
@@ -29726,7 +29726,7 @@
         <v>0.5</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT144" t="n">
         <v>0.46</v>
@@ -29929,7 +29929,7 @@
         <v>1</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT145" t="n">
         <v>1.31</v>
@@ -30338,7 +30338,7 @@
         <v>1.31</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU147" t="n">
         <v>1.55</v>
@@ -30541,7 +30541,7 @@
         <v>1.15</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU148" t="n">
         <v>1.62</v>
@@ -31553,10 +31553,10 @@
         <v>1.42</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU153" t="n">
         <v>1.69</v>
@@ -31756,7 +31756,7 @@
         <v>1</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT154" t="n">
         <v>0.92</v>
@@ -32568,7 +32568,7 @@
         <v>1.35</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="AT158" t="n">
         <v>1.3</v>
@@ -32774,7 +32774,7 @@
         <v>1.52</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AU159" t="n">
         <v>1.59</v>
@@ -32826,6 +32826,412 @@
       </c>
       <c r="BK159" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>6070702</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>45058.28125</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Sydney FC</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Melbourne City FC</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>1</v>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="n">
+        <v>2</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>['18']</t>
+        </is>
+      </c>
+      <c r="Q160" t="n">
+        <v>0</v>
+      </c>
+      <c r="R160" t="n">
+        <v>2</v>
+      </c>
+      <c r="S160" t="n">
+        <v>2</v>
+      </c>
+      <c r="T160" t="n">
+        <v>3</v>
+      </c>
+      <c r="U160" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V160" t="n">
+        <v>3</v>
+      </c>
+      <c r="W160" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X160" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL160" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AN160" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO160" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP160" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AQ160" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT160" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AU160" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV160" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AW160" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="AX160" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AY160" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ160" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BA160" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB160" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC160" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD160" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BE160" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF160" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG160" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH160" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI160" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ160" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK160" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>6060803</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>45059.28125</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Adelaide United</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Central Coast Mariners</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="n">
+        <v>2</v>
+      </c>
+      <c r="K161" t="n">
+        <v>3</v>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="n">
+        <v>2</v>
+      </c>
+      <c r="N161" t="n">
+        <v>3</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>['15', '38']</t>
+        </is>
+      </c>
+      <c r="Q161" t="n">
+        <v>10</v>
+      </c>
+      <c r="R161" t="n">
+        <v>2</v>
+      </c>
+      <c r="S161" t="n">
+        <v>12</v>
+      </c>
+      <c r="T161" t="n">
+        <v>3</v>
+      </c>
+      <c r="U161" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V161" t="n">
+        <v>3</v>
+      </c>
+      <c r="W161" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X161" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AI161" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AJ161" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK161" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL161" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AM161" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AN161" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO161" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP161" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ161" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR161" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS161" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AT161" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AU161" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV161" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AW161" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AX161" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY161" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ161" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA161" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="BB161" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BC161" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BD161" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BE161" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BF161" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG161" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH161" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI161" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ161" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK161" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK161"/>
+  <dimension ref="A1:BK162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1512,7 @@
         <v>1.54</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.38</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>1.36</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU17" t="n">
         <v>1.74</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT18" t="n">
         <v>0.46</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT21" t="n">
         <v>1.31</v>
@@ -6587,7 +6587,7 @@
         <v>1.15</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU30" t="n">
         <v>2.13</v>
@@ -7599,7 +7599,7 @@
         <v>0.67</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT35" t="n">
         <v>0.62</v>
@@ -7805,7 +7805,7 @@
         <v>1.31</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU36" t="n">
         <v>1.43</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT40" t="n">
         <v>0.92</v>
@@ -9226,7 +9226,7 @@
         <v>1.54</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU43" t="n">
         <v>1.54</v>
@@ -9426,7 +9426,7 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT44" t="n">
         <v>1.64</v>
@@ -10035,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT47" t="n">
         <v>0.92</v>
@@ -11659,7 +11659,7 @@
         <v>1.4</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT55" t="n">
         <v>0.85</v>
@@ -13283,10 +13283,10 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU63" t="n">
         <v>1.87</v>
@@ -17343,7 +17343,7 @@
         <v>1.29</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT83" t="n">
         <v>1.15</v>
@@ -17549,7 +17549,7 @@
         <v>2.54</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU84" t="n">
         <v>1.99</v>
@@ -19173,7 +19173,7 @@
         <v>1.15</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU92" t="n">
         <v>1.7</v>
@@ -21403,7 +21403,7 @@
         <v>1.38</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT103" t="n">
         <v>1.07</v>
@@ -22218,7 +22218,7 @@
         <v>1.31</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU107" t="n">
         <v>1.5</v>
@@ -24042,7 +24042,7 @@
         <v>0.89</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT116" t="n">
         <v>0.62</v>
@@ -24248,7 +24248,7 @@
         <v>1.31</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU117" t="n">
         <v>1.48</v>
@@ -25119,7 +25119,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>3216121</v>
+        <v>3216122</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -25139,149 +25139,149 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Newcastle Jets FC</t>
+          <t>Brisbane Roar</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Perth Glory FC</t>
+          <t>Western United</t>
         </is>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="n">
         <v>0</v>
       </c>
       <c r="K122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" t="n">
+        <v>1</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q122" t="n">
         <v>2</v>
       </c>
-      <c r="M122" t="n">
-        <v>2</v>
-      </c>
-      <c r="N122" t="n">
-        <v>4</v>
-      </c>
-      <c r="O122" t="inlineStr">
-        <is>
-          <t>['36', '79']</t>
-        </is>
-      </c>
-      <c r="P122" t="inlineStr">
-        <is>
-          <t>['52', '90+7']</t>
-        </is>
-      </c>
-      <c r="Q122" t="n">
-        <v>9</v>
-      </c>
       <c r="R122" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S122" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="T122" t="n">
-        <v>2.94</v>
+        <v>2.7</v>
       </c>
       <c r="U122" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="V122" t="n">
-        <v>3.54</v>
+        <v>3.3</v>
       </c>
       <c r="W122" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X122" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Y122" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="Z122" t="n">
-        <v>1.54</v>
+        <v>1.45</v>
       </c>
       <c r="AA122" t="n">
-        <v>5.95</v>
+        <v>5.8</v>
       </c>
       <c r="AB122" t="n">
         <v>1.1</v>
       </c>
       <c r="AC122" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AD122" t="n">
         <v>3.4</v>
       </c>
       <c r="AE122" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AF122" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AG122" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AH122" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AI122" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AJ122" t="n">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="AK122" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AL122" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="AM122" t="n">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AN122" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="AO122" t="n">
         <v>1.3</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="AR122" t="n">
-        <v>0.4</v>
+        <v>1.11</v>
       </c>
       <c r="AS122" t="n">
         <v>1.31</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.46</v>
+        <v>1.31</v>
       </c>
       <c r="AU122" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="AV122" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="AW122" t="n">
         <v>2.86</v>
       </c>
       <c r="AX122" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="AY122" t="n">
         <v>10</v>
       </c>
       <c r="AZ122" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="BA122" t="n">
         <v>1.1</v>
@@ -25293,28 +25293,28 @@
         <v>1.48</v>
       </c>
       <c r="BD122" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="BE122" t="n">
         <v>2.1</v>
       </c>
       <c r="BF122" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BG122" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH122" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BI122" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BJ122" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BK122" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123">
@@ -25322,7 +25322,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>3216122</v>
+        <v>3216121</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -25342,149 +25342,149 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Brisbane Roar</t>
+          <t>Newcastle Jets FC</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Western United</t>
+          <t>Perth Glory FC</t>
         </is>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="n">
         <v>0</v>
       </c>
       <c r="K123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N123" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>['81']</t>
+          <t>['36', '79']</t>
         </is>
       </c>
       <c r="P123" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['52', '90+7']</t>
         </is>
       </c>
       <c r="Q123" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R123" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S123" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="T123" t="n">
-        <v>2.7</v>
+        <v>2.94</v>
       </c>
       <c r="U123" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="V123" t="n">
-        <v>3.3</v>
+        <v>3.54</v>
       </c>
       <c r="W123" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X123" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Y123" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="Z123" t="n">
-        <v>1.45</v>
+        <v>1.54</v>
       </c>
       <c r="AA123" t="n">
-        <v>5.8</v>
+        <v>5.95</v>
       </c>
       <c r="AB123" t="n">
         <v>1.1</v>
       </c>
       <c r="AC123" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AD123" t="n">
         <v>3.4</v>
       </c>
       <c r="AE123" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AF123" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AG123" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AH123" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AI123" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AJ123" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AK123" t="n">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="AL123" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="AM123" t="n">
-        <v>2.25</v>
+        <v>2.36</v>
       </c>
       <c r="AN123" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="AO123" t="n">
         <v>1.3</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="AR123" t="n">
-        <v>1.11</v>
+        <v>0.4</v>
       </c>
       <c r="AS123" t="n">
         <v>1.31</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.31</v>
+        <v>0.46</v>
       </c>
       <c r="AU123" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AV123" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="AW123" t="n">
         <v>2.86</v>
       </c>
       <c r="AX123" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="AY123" t="n">
         <v>10</v>
       </c>
       <c r="AZ123" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="BA123" t="n">
         <v>1.1</v>
@@ -25496,28 +25496,28 @@
         <v>1.48</v>
       </c>
       <c r="BD123" t="n">
-        <v>1.73</v>
+        <v>1.9</v>
       </c>
       <c r="BE123" t="n">
         <v>2.1</v>
       </c>
       <c r="BF123" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BG123" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH123" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BI123" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BJ123" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BK123" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124">
@@ -26278,7 +26278,7 @@
         <v>1.86</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU127" t="n">
         <v>1.53</v>
@@ -26681,7 +26681,7 @@
         <v>0.9</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT129" t="n">
         <v>1</v>
@@ -29117,7 +29117,7 @@
         <v>1.64</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT141" t="n">
         <v>1.64</v>
@@ -30947,7 +30947,7 @@
         <v>1.77</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU150" t="n">
         <v>1.54</v>
@@ -32568,7 +32568,7 @@
         <v>1.35</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="AT158" t="n">
         <v>1.3</v>
@@ -33177,10 +33177,10 @@
         <v>1.69</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="AU161" t="n">
         <v>1.71</v>
@@ -33232,6 +33232,209 @@
       </c>
       <c r="BK161" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>6060804</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>45066.28125</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Central Coast Mariners</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Adelaide United</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="n">
+        <v>2</v>
+      </c>
+      <c r="M162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N162" t="n">
+        <v>2</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>['48', '52']</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q162" t="n">
+        <v>9</v>
+      </c>
+      <c r="R162" t="n">
+        <v>9</v>
+      </c>
+      <c r="S162" t="n">
+        <v>18</v>
+      </c>
+      <c r="T162" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U162" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V162" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W162" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X162" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ162" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AK162" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AL162" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AM162" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN162" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO162" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP162" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ162" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AR162" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AS162" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AT162" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AU162" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AV162" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AW162" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AX162" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY162" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ162" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BA162" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="BB162" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BC162" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BD162" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BE162" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BF162" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG162" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH162" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI162" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ162" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK162" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK162"/>
+  <dimension ref="A1:BK163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT2" t="n">
         <v>1.31</v>
@@ -2933,7 +2933,7 @@
         <v>1.15</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>1.38</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU22" t="n">
         <v>1.29</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT24" t="n">
         <v>1.07</v>
@@ -5772,7 +5772,7 @@
         <v>0.75</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT26" t="n">
         <v>0.46</v>
@@ -6384,7 +6384,7 @@
         <v>1.31</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU29" t="n">
         <v>1.22</v>
@@ -9429,7 +9429,7 @@
         <v>1.93</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU44" t="n">
         <v>1.95</v>
@@ -11050,7 +11050,7 @@
         <v>2</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT52" t="n">
         <v>1.64</v>
@@ -11865,7 +11865,7 @@
         <v>1.31</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU56" t="n">
         <v>1.44</v>
@@ -13486,7 +13486,7 @@
         <v>0.75</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT64" t="n">
         <v>1.31</v>
@@ -14707,7 +14707,7 @@
         <v>1.77</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU70" t="n">
         <v>1.51</v>
@@ -15519,7 +15519,7 @@
         <v>1.15</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU74" t="n">
         <v>1.71</v>
@@ -16534,7 +16534,7 @@
         <v>1.31</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU79" t="n">
         <v>1.59</v>
@@ -17546,7 +17546,7 @@
         <v>0.86</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT84" t="n">
         <v>1.29</v>
@@ -17952,7 +17952,7 @@
         <v>1.14</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT86" t="n">
         <v>0.62</v>
@@ -19376,7 +19376,7 @@
         <v>1.86</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU93" t="n">
         <v>1.41</v>
@@ -21809,10 +21809,10 @@
         <v>1.78</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU105" t="n">
         <v>2.27</v>
@@ -24451,7 +24451,7 @@
         <v>1.54</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU118" t="n">
         <v>1.54</v>
@@ -24651,7 +24651,7 @@
         <v>1</v>
       </c>
       <c r="AS119" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT119" t="n">
         <v>1</v>
@@ -27290,7 +27290,7 @@
         <v>1.1</v>
       </c>
       <c r="AS132" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT132" t="n">
         <v>0.92</v>
@@ -27493,7 +27493,7 @@
         <v>1</v>
       </c>
       <c r="AS133" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT133" t="n">
         <v>0.85</v>
@@ -27902,7 +27902,7 @@
         <v>1.8</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU135" t="n">
         <v>1.69</v>
@@ -28711,7 +28711,7 @@
         <v>1.2</v>
       </c>
       <c r="AS139" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT139" t="n">
         <v>1.07</v>
@@ -31150,7 +31150,7 @@
         <v>1.31</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU151" t="n">
         <v>1.51</v>
@@ -31350,7 +31350,7 @@
         <v>1.25</v>
       </c>
       <c r="AS152" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT152" t="n">
         <v>1.15</v>
@@ -32774,7 +32774,7 @@
         <v>1.52</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU159" t="n">
         <v>1.59</v>
@@ -32974,10 +32974,10 @@
         <v>2.12</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT160" t="n">
-        <v>2.07</v>
+        <v>2.11</v>
       </c>
       <c r="AU160" t="n">
         <v>1.86</v>
@@ -33239,7 +33239,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="n">
-        <v>6060804</v>
+        <v>6070703</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -33252,42 +33252,42 @@
         </is>
       </c>
       <c r="E162" s="2" t="n">
-        <v>45066.28125</v>
+        <v>45065.28125</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Central Coast Mariners</t>
+          <t>Melbourne City FC</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Adelaide United</t>
+          <t>Sydney FC</t>
         </is>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162" t="n">
         <v>0</v>
       </c>
       <c r="K162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L162" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M162" t="n">
         <v>0</v>
       </c>
       <c r="N162" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>['48', '52']</t>
+          <t>['37', '59', '67', '82']</t>
         </is>
       </c>
       <c r="P162" t="inlineStr">
@@ -33296,144 +33296,347 @@
         </is>
       </c>
       <c r="Q162" t="n">
+        <v>6</v>
+      </c>
+      <c r="R162" t="n">
+        <v>3</v>
+      </c>
+      <c r="S162" t="n">
         <v>9</v>
       </c>
-      <c r="R162" t="n">
-        <v>9</v>
-      </c>
-      <c r="S162" t="n">
-        <v>18</v>
-      </c>
       <c r="T162" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="U162" t="n">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="V162" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="W162" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="X162" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="Y162" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="Z162" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="AA162" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="AB162" t="n">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="AC162" t="n">
         <v>1.85</v>
       </c>
       <c r="AD162" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AE162" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="AF162" t="n">
         <v>1.02</v>
       </c>
       <c r="AG162" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ162" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK162" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL162" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM162" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN162" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO162" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP162" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ162" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AR162" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS162" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AT162" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AU162" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AV162" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AW162" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AX162" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY162" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ162" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BA162" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB162" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC162" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BD162" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE162" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BF162" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG162" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH162" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI162" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ162" t="n">
         <v>15</v>
       </c>
-      <c r="AH162" t="n">
+      <c r="BK162" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>6060804</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Australia A-League</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>45066.28125</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Central Coast Mariners</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Adelaide United</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L163" t="n">
+        <v>2</v>
+      </c>
+      <c r="M163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N163" t="n">
+        <v>2</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>['48', '52']</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q163" t="n">
+        <v>8</v>
+      </c>
+      <c r="R163" t="n">
+        <v>9</v>
+      </c>
+      <c r="S163" t="n">
+        <v>17</v>
+      </c>
+      <c r="T163" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U163" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V163" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W163" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X163" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH163" t="n">
         <v>1.1</v>
       </c>
-      <c r="AI162" t="n">
+      <c r="AI163" t="n">
         <v>6.5</v>
       </c>
-      <c r="AJ162" t="n">
+      <c r="AJ163" t="n">
         <v>1.36</v>
       </c>
-      <c r="AK162" t="n">
+      <c r="AK163" t="n">
         <v>2.9</v>
       </c>
-      <c r="AL162" t="n">
+      <c r="AL163" t="n">
         <v>1.36</v>
       </c>
-      <c r="AM162" t="n">
+      <c r="AM163" t="n">
         <v>3</v>
       </c>
-      <c r="AN162" t="n">
+      <c r="AN163" t="n">
         <v>1.33</v>
       </c>
-      <c r="AO162" t="n">
+      <c r="AO163" t="n">
         <v>1.18</v>
       </c>
-      <c r="AP162" t="n">
+      <c r="AP163" t="n">
         <v>1.87</v>
       </c>
-      <c r="AQ162" t="n">
+      <c r="AQ163" t="n">
         <v>1.74</v>
       </c>
-      <c r="AR162" t="n">
+      <c r="AR163" t="n">
         <v>1.61</v>
       </c>
-      <c r="AS162" t="n">
+      <c r="AS163" t="n">
         <v>1.79</v>
       </c>
-      <c r="AT162" t="n">
+      <c r="AT163" t="n">
         <v>1.55</v>
       </c>
-      <c r="AU162" t="n">
+      <c r="AU163" t="n">
         <v>1.92</v>
       </c>
-      <c r="AV162" t="n">
+      <c r="AV163" t="n">
         <v>1.72</v>
       </c>
-      <c r="AW162" t="n">
+      <c r="AW163" t="n">
         <v>3.64</v>
       </c>
-      <c r="AX162" t="n">
+      <c r="AX163" t="n">
         <v>1.69</v>
       </c>
-      <c r="AY162" t="n">
+      <c r="AY163" t="n">
         <v>9</v>
       </c>
-      <c r="AZ162" t="n">
+      <c r="AZ163" t="n">
         <v>2.53</v>
       </c>
-      <c r="BA162" t="n">
+      <c r="BA163" t="n">
         <v>1.07</v>
       </c>
-      <c r="BB162" t="n">
+      <c r="BB163" t="n">
         <v>1.16</v>
       </c>
-      <c r="BC162" t="n">
+      <c r="BC163" t="n">
         <v>1.3</v>
       </c>
-      <c r="BD162" t="n">
+      <c r="BD163" t="n">
         <v>1.48</v>
       </c>
-      <c r="BE162" t="n">
+      <c r="BE163" t="n">
         <v>1.83</v>
       </c>
-      <c r="BF162" t="n">
+      <c r="BF163" t="n">
         <v>10</v>
       </c>
-      <c r="BG162" t="n">
+      <c r="BG163" t="n">
         <v>9</v>
       </c>
-      <c r="BH162" t="n">
+      <c r="BH163" t="n">
         <v>14</v>
       </c>
-      <c r="BI162" t="n">
+      <c r="BI163" t="n">
         <v>11</v>
       </c>
-      <c r="BJ162" t="n">
+      <c r="BJ163" t="n">
         <v>24</v>
       </c>
-      <c r="BK162" t="n">
+      <c r="BK163" t="n">
         <v>20</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Australia A-League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="293">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -625,6 +625,9 @@
     <t>['37', '59', '67', '82']</t>
   </si>
   <si>
+    <t>['40']</t>
+  </si>
+  <si>
     <t>['31', '67', '83']</t>
   </si>
   <si>
@@ -887,6 +890,9 @@
   </si>
   <si>
     <t>['15', '38']</t>
+  </si>
+  <si>
+    <t>['20', '34', '65', '73', '83', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -1248,7 +1254,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK163"/>
+  <dimension ref="A1:BK164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1579,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.57</v>
+        <v>2.4</v>
       </c>
       <c r="AT2">
         <v>1.31</v>
@@ -1874,7 +1880,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -2447,7 +2453,7 @@
         <v>78</v>
       </c>
       <c r="P7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2638,7 +2644,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2829,7 +2835,7 @@
         <v>78</v>
       </c>
       <c r="P9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3020,7 +3026,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3110,7 +3116,7 @@
         <v>1.54</v>
       </c>
       <c r="AT10">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU10">
         <v>0.8100000000000001</v>
@@ -3402,7 +3408,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3593,7 +3599,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q13">
         <v>9</v>
@@ -4166,7 +4172,7 @@
         <v>78</v>
       </c>
       <c r="P16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4357,7 +4363,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4548,7 +4554,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q18">
         <v>9</v>
@@ -5121,7 +5127,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q21">
         <v>8</v>
@@ -5312,7 +5318,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5503,7 +5509,7 @@
         <v>94</v>
       </c>
       <c r="P23" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5694,7 +5700,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5781,7 +5787,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2.57</v>
+        <v>2.4</v>
       </c>
       <c r="AT24">
         <v>1.07</v>
@@ -6163,7 +6169,7 @@
         <v>0.75</v>
       </c>
       <c r="AS26">
-        <v>2.57</v>
+        <v>2.4</v>
       </c>
       <c r="AT26">
         <v>0.46</v>
@@ -6267,7 +6273,7 @@
         <v>78</v>
       </c>
       <c r="P27" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -6357,7 +6363,7 @@
         <v>1.86</v>
       </c>
       <c r="AT27">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU27">
         <v>1.3</v>
@@ -6840,7 +6846,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -7222,7 +7228,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7413,7 +7419,7 @@
         <v>78</v>
       </c>
       <c r="P33" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7604,7 +7610,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q34">
         <v>8</v>
@@ -7795,7 +7801,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7986,7 +7992,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q36">
         <v>7</v>
@@ -8177,7 +8183,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8559,7 +8565,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8750,7 +8756,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q40">
         <v>10</v>
@@ -8941,7 +8947,7 @@
         <v>78</v>
       </c>
       <c r="P41" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9132,7 +9138,7 @@
         <v>78</v>
       </c>
       <c r="P42" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9514,7 +9520,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -10278,7 +10284,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10469,7 +10475,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10660,7 +10666,7 @@
         <v>78</v>
       </c>
       <c r="P50" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -11129,10 +11135,10 @@
         <v>2</v>
       </c>
       <c r="AS52">
-        <v>2.57</v>
+        <v>2.4</v>
       </c>
       <c r="AT52">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU52">
         <v>2.05</v>
@@ -11806,7 +11812,7 @@
         <v>78</v>
       </c>
       <c r="P56" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12188,7 +12194,7 @@
         <v>85</v>
       </c>
       <c r="P58" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q58">
         <v>9</v>
@@ -12570,7 +12576,7 @@
         <v>78</v>
       </c>
       <c r="P60" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12952,7 +12958,7 @@
         <v>78</v>
       </c>
       <c r="P62" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13421,7 +13427,7 @@
         <v>0.75</v>
       </c>
       <c r="AS64">
-        <v>2.57</v>
+        <v>2.4</v>
       </c>
       <c r="AT64">
         <v>1.31</v>
@@ -13716,7 +13722,7 @@
         <v>125</v>
       </c>
       <c r="P66" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13907,7 +13913,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -13997,7 +14003,7 @@
         <v>1.38</v>
       </c>
       <c r="AT67">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU67">
         <v>1.5</v>
@@ -14098,7 +14104,7 @@
         <v>78</v>
       </c>
       <c r="P68" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -14289,7 +14295,7 @@
         <v>127</v>
       </c>
       <c r="P69" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14480,7 +14486,7 @@
         <v>128</v>
       </c>
       <c r="P70" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q70">
         <v>7</v>
@@ -14671,7 +14677,7 @@
         <v>129</v>
       </c>
       <c r="P71" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q71">
         <v>0</v>
@@ -14862,7 +14868,7 @@
         <v>130</v>
       </c>
       <c r="P72" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -15907,7 +15913,7 @@
         <v>1.54</v>
       </c>
       <c r="AT77">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU77">
         <v>1.73</v>
@@ -16199,7 +16205,7 @@
         <v>136</v>
       </c>
       <c r="P79" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q79">
         <v>9</v>
@@ -16581,7 +16587,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -16772,7 +16778,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16963,7 +16969,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q83">
         <v>5</v>
@@ -17154,7 +17160,7 @@
         <v>141</v>
       </c>
       <c r="P84" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q84">
         <v>12</v>
@@ -17241,7 +17247,7 @@
         <v>0.86</v>
       </c>
       <c r="AS84">
-        <v>2.57</v>
+        <v>2.4</v>
       </c>
       <c r="AT84">
         <v>1.29</v>
@@ -17536,7 +17542,7 @@
         <v>143</v>
       </c>
       <c r="P86" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q86">
         <v>9</v>
@@ -17623,7 +17629,7 @@
         <v>1.14</v>
       </c>
       <c r="AS86">
-        <v>2.57</v>
+        <v>2.4</v>
       </c>
       <c r="AT86">
         <v>0.62</v>
@@ -17727,7 +17733,7 @@
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17817,7 +17823,7 @@
         <v>1.36</v>
       </c>
       <c r="AT87">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU87">
         <v>1.89</v>
@@ -18109,7 +18115,7 @@
         <v>146</v>
       </c>
       <c r="P89" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18491,7 +18497,7 @@
         <v>148</v>
       </c>
       <c r="P91" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q91">
         <v>7</v>
@@ -18581,7 +18587,7 @@
         <v>1.31</v>
       </c>
       <c r="AT91">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU91">
         <v>1.48</v>
@@ -18682,7 +18688,7 @@
         <v>149</v>
       </c>
       <c r="P92" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q92">
         <v>7</v>
@@ -19064,7 +19070,7 @@
         <v>150</v>
       </c>
       <c r="P94" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19255,7 +19261,7 @@
         <v>151</v>
       </c>
       <c r="P95" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q95">
         <v>2</v>
@@ -19637,7 +19643,7 @@
         <v>78</v>
       </c>
       <c r="P97" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q97">
         <v>12</v>
@@ -19828,7 +19834,7 @@
         <v>105</v>
       </c>
       <c r="P98" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q98">
         <v>7</v>
@@ -20019,7 +20025,7 @@
         <v>78</v>
       </c>
       <c r="P99" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q99">
         <v>6</v>
@@ -20210,7 +20216,7 @@
         <v>153</v>
       </c>
       <c r="P100" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20401,7 +20407,7 @@
         <v>154</v>
       </c>
       <c r="P101" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20491,7 +20497,7 @@
         <v>1.77</v>
       </c>
       <c r="AT101">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU101">
         <v>1.62</v>
@@ -20592,7 +20598,7 @@
         <v>155</v>
       </c>
       <c r="P102" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20974,7 +20980,7 @@
         <v>157</v>
       </c>
       <c r="P104" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21165,7 +21171,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q105">
         <v>7</v>
@@ -21252,7 +21258,7 @@
         <v>1.78</v>
       </c>
       <c r="AS105">
-        <v>2.57</v>
+        <v>2.4</v>
       </c>
       <c r="AT105">
         <v>1.53</v>
@@ -21547,7 +21553,7 @@
         <v>160</v>
       </c>
       <c r="P107" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21929,7 +21935,7 @@
         <v>162</v>
       </c>
       <c r="P109" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q109">
         <v>8</v>
@@ -22120,7 +22126,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -22592,7 +22598,7 @@
         <v>1.86</v>
       </c>
       <c r="AT112">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU112">
         <v>1.54</v>
@@ -22884,7 +22890,7 @@
         <v>167</v>
       </c>
       <c r="P114" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -23266,7 +23272,7 @@
         <v>169</v>
       </c>
       <c r="P116" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q116">
         <v>8</v>
@@ -23457,7 +23463,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q117">
         <v>9</v>
@@ -23839,7 +23845,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -23926,7 +23932,7 @@
         <v>1</v>
       </c>
       <c r="AS119">
-        <v>2.57</v>
+        <v>2.4</v>
       </c>
       <c r="AT119">
         <v>1</v>
@@ -24030,7 +24036,7 @@
         <v>172</v>
       </c>
       <c r="P120" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q120">
         <v>5</v>
@@ -24221,7 +24227,7 @@
         <v>173</v>
       </c>
       <c r="P121" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24603,7 +24609,7 @@
         <v>174</v>
       </c>
       <c r="P123" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q123">
         <v>9</v>
@@ -24794,7 +24800,7 @@
         <v>78</v>
       </c>
       <c r="P124" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q124">
         <v>8</v>
@@ -25075,7 +25081,7 @@
         <v>1.31</v>
       </c>
       <c r="AT125">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU125">
         <v>1.51</v>
@@ -25176,7 +25182,7 @@
         <v>136</v>
       </c>
       <c r="P126" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q126">
         <v>3</v>
@@ -25367,7 +25373,7 @@
         <v>176</v>
       </c>
       <c r="P127" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25558,7 +25564,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q128">
         <v>5</v>
@@ -25749,7 +25755,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q129">
         <v>2</v>
@@ -25940,7 +25946,7 @@
         <v>179</v>
       </c>
       <c r="P130" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q130">
         <v>11</v>
@@ -26131,7 +26137,7 @@
         <v>180</v>
       </c>
       <c r="P131" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q131">
         <v>7</v>
@@ -26322,7 +26328,7 @@
         <v>181</v>
       </c>
       <c r="P132" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q132">
         <v>9</v>
@@ -26409,7 +26415,7 @@
         <v>1.1</v>
       </c>
       <c r="AS132">
-        <v>2.57</v>
+        <v>2.4</v>
       </c>
       <c r="AT132">
         <v>0.92</v>
@@ -26513,7 +26519,7 @@
         <v>182</v>
       </c>
       <c r="P133" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q133">
         <v>7</v>
@@ -26600,7 +26606,7 @@
         <v>1</v>
       </c>
       <c r="AS133">
-        <v>2.57</v>
+        <v>2.4</v>
       </c>
       <c r="AT133">
         <v>0.85</v>
@@ -26704,7 +26710,7 @@
         <v>78</v>
       </c>
       <c r="P134" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -26794,7 +26800,7 @@
         <v>1.15</v>
       </c>
       <c r="AT134">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU134">
         <v>1.64</v>
@@ -26895,7 +26901,7 @@
         <v>183</v>
       </c>
       <c r="P135" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q135">
         <v>6</v>
@@ -27277,7 +27283,7 @@
         <v>185</v>
       </c>
       <c r="P137" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q137">
         <v>2</v>
@@ -27659,7 +27665,7 @@
         <v>186</v>
       </c>
       <c r="P139" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -27746,7 +27752,7 @@
         <v>1.2</v>
       </c>
       <c r="AS139">
-        <v>2.57</v>
+        <v>2.4</v>
       </c>
       <c r="AT139">
         <v>1.07</v>
@@ -28041,7 +28047,7 @@
         <v>81</v>
       </c>
       <c r="P141" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q141">
         <v>11</v>
@@ -28232,7 +28238,7 @@
         <v>188</v>
       </c>
       <c r="P142" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q142">
         <v>6</v>
@@ -28423,7 +28429,7 @@
         <v>189</v>
       </c>
       <c r="P143" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q143">
         <v>9</v>
@@ -28614,7 +28620,7 @@
         <v>190</v>
       </c>
       <c r="P144" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q144">
         <v>6</v>
@@ -28805,7 +28811,7 @@
         <v>78</v>
       </c>
       <c r="P145" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q145">
         <v>10</v>
@@ -29187,7 +29193,7 @@
         <v>192</v>
       </c>
       <c r="P147" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q147">
         <v>7</v>
@@ -29277,7 +29283,7 @@
         <v>1.31</v>
       </c>
       <c r="AT147">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU147">
         <v>1.55</v>
@@ -29378,7 +29384,7 @@
         <v>102</v>
       </c>
       <c r="P148" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q148">
         <v>6</v>
@@ -29569,7 +29575,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -29760,7 +29766,7 @@
         <v>194</v>
       </c>
       <c r="P150" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -29951,7 +29957,7 @@
         <v>78</v>
       </c>
       <c r="P151" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q151">
         <v>6</v>
@@ -30142,7 +30148,7 @@
         <v>195</v>
       </c>
       <c r="P152" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q152">
         <v>8</v>
@@ -30229,7 +30235,7 @@
         <v>1.25</v>
       </c>
       <c r="AS152">
-        <v>2.57</v>
+        <v>2.4</v>
       </c>
       <c r="AT152">
         <v>1.15</v>
@@ -30333,7 +30339,7 @@
         <v>196</v>
       </c>
       <c r="P153" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q153">
         <v>7</v>
@@ -30423,7 +30429,7 @@
         <v>1.8</v>
       </c>
       <c r="AT153">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU153">
         <v>1.69</v>
@@ -30715,7 +30721,7 @@
         <v>78</v>
       </c>
       <c r="P155" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q155">
         <v>8</v>
@@ -30906,7 +30912,7 @@
         <v>78</v>
       </c>
       <c r="P156" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q156">
         <v>5</v>
@@ -31097,7 +31103,7 @@
         <v>198</v>
       </c>
       <c r="P157" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q157">
         <v>1</v>
@@ -31479,7 +31485,7 @@
         <v>117</v>
       </c>
       <c r="P159" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q159">
         <v>4</v>
@@ -31670,7 +31676,7 @@
         <v>200</v>
       </c>
       <c r="P160" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q160">
         <v>0</v>
@@ -31760,7 +31766,7 @@
         <v>1.45</v>
       </c>
       <c r="AT160">
-        <v>2.11</v>
+        <v>2.03</v>
       </c>
       <c r="AU160">
         <v>1.86</v>
@@ -31861,7 +31867,7 @@
         <v>201</v>
       </c>
       <c r="P161" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q161">
         <v>10</v>
@@ -31951,7 +31957,7 @@
         <v>1.55</v>
       </c>
       <c r="AT161">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="AU161">
         <v>1.71</v>
@@ -32139,7 +32145,7 @@
         <v>1.5</v>
       </c>
       <c r="AS162">
-        <v>2.11</v>
+        <v>2.03</v>
       </c>
       <c r="AT162">
         <v>1.45</v>
@@ -32330,7 +32336,7 @@
         <v>1.61</v>
       </c>
       <c r="AS163">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="AT163">
         <v>1.55</v>
@@ -32385,6 +32391,197 @@
       </c>
       <c r="BK163">
         <v>20</v>
+      </c>
+    </row>
+    <row r="164" spans="1:63">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>6190808</v>
+      </c>
+      <c r="C164" t="s">
+        <v>63</v>
+      </c>
+      <c r="D164" t="s">
+        <v>64</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45080.28125</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164" t="s">
+        <v>65</v>
+      </c>
+      <c r="H164" t="s">
+        <v>74</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164">
+        <v>2</v>
+      </c>
+      <c r="K164">
+        <v>3</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+      <c r="M164">
+        <v>6</v>
+      </c>
+      <c r="N164">
+        <v>7</v>
+      </c>
+      <c r="O164" t="s">
+        <v>203</v>
+      </c>
+      <c r="P164" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q164">
+        <v>4</v>
+      </c>
+      <c r="R164">
+        <v>2</v>
+      </c>
+      <c r="S164">
+        <v>6</v>
+      </c>
+      <c r="T164">
+        <v>2.5</v>
+      </c>
+      <c r="U164">
+        <v>2.4</v>
+      </c>
+      <c r="V164">
+        <v>3.75</v>
+      </c>
+      <c r="W164">
+        <v>1.29</v>
+      </c>
+      <c r="X164">
+        <v>3.5</v>
+      </c>
+      <c r="Y164">
+        <v>2.25</v>
+      </c>
+      <c r="Z164">
+        <v>1.57</v>
+      </c>
+      <c r="AA164">
+        <v>5.5</v>
+      </c>
+      <c r="AB164">
+        <v>1.14</v>
+      </c>
+      <c r="AC164">
+        <v>2.01</v>
+      </c>
+      <c r="AD164">
+        <v>3.85</v>
+      </c>
+      <c r="AE164">
+        <v>3.25</v>
+      </c>
+      <c r="AF164">
+        <v>1.03</v>
+      </c>
+      <c r="AG164">
+        <v>17</v>
+      </c>
+      <c r="AH164">
+        <v>1.17</v>
+      </c>
+      <c r="AI164">
+        <v>5.36</v>
+      </c>
+      <c r="AJ164">
+        <v>1.52</v>
+      </c>
+      <c r="AK164">
+        <v>2.43</v>
+      </c>
+      <c r="AL164">
+        <v>1.5</v>
+      </c>
+      <c r="AM164">
+        <v>2.5</v>
+      </c>
+      <c r="AN164">
+        <v>1.32</v>
+      </c>
+      <c r="AO164">
+        <v>1.25</v>
+      </c>
+      <c r="AP164">
+        <v>1.77</v>
+      </c>
+      <c r="AQ164">
+        <v>2.11</v>
+      </c>
+      <c r="AR164">
+        <v>1.79</v>
+      </c>
+      <c r="AS164">
+        <v>2.03</v>
+      </c>
+      <c r="AT164">
+        <v>1.83</v>
+      </c>
+      <c r="AU164">
+        <v>2.13</v>
+      </c>
+      <c r="AV164">
+        <v>1.73</v>
+      </c>
+      <c r="AW164">
+        <v>3.86</v>
+      </c>
+      <c r="AX164">
+        <v>1.51</v>
+      </c>
+      <c r="AY164">
+        <v>9</v>
+      </c>
+      <c r="AZ164">
+        <v>3.06</v>
+      </c>
+      <c r="BA164">
+        <v>1.12</v>
+      </c>
+      <c r="BB164">
+        <v>1.25</v>
+      </c>
+      <c r="BC164">
+        <v>1.46</v>
+      </c>
+      <c r="BD164">
+        <v>1.83</v>
+      </c>
+      <c r="BE164">
+        <v>2.3</v>
+      </c>
+      <c r="BF164">
+        <v>5</v>
+      </c>
+      <c r="BG164">
+        <v>12</v>
+      </c>
+      <c r="BH164">
+        <v>6</v>
+      </c>
+      <c r="BI164">
+        <v>1</v>
+      </c>
+      <c r="BJ164">
+        <v>11</v>
+      </c>
+      <c r="BK164">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
